--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="453">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -934,6 +934,9 @@
     <t>['45', '56', '86']</t>
   </si>
   <si>
+    <t>['4', '83', '90+2']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1368,6 +1371,9 @@
   <si>
     <t>['27', '45+9', '62', '90+3']</t>
   </si>
+  <si>
+    <t>['45+4', '47', '64', '71']</t>
+  </si>
 </sst>
 </file>
 
@@ -1728,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP358"/>
+  <dimension ref="A1:BP359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2193,7 +2199,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2399,7 +2405,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
         <v>2.06</v>
@@ -2811,7 +2817,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -3223,7 +3229,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3429,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3841,7 +3847,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3922,7 +3928,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4253,7 +4259,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4459,7 +4465,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4871,7 +4877,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5283,7 +5289,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5489,7 +5495,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -6107,7 +6113,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6185,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>1.06</v>
@@ -7137,7 +7143,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7961,7 +7967,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -8167,7 +8173,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8579,7 +8585,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8991,7 +8997,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9197,7 +9203,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9403,7 +9409,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9484,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9815,7 +9821,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10021,7 +10027,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10227,7 +10233,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -11051,7 +11057,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11750,7 +11756,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -12571,7 +12577,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -12699,7 +12705,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -13111,7 +13117,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13729,7 +13735,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13935,7 +13941,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14553,7 +14559,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14634,7 +14640,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ63">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14759,7 +14765,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14965,7 +14971,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15377,7 +15383,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16613,7 +16619,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16819,7 +16825,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17103,7 +17109,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
         <v>1.11</v>
@@ -17643,7 +17649,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -18055,7 +18061,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18261,7 +18267,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18673,7 +18679,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18879,7 +18885,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19909,7 +19915,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -20115,7 +20121,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20321,7 +20327,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20605,7 +20611,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
         <v>1.94</v>
@@ -20939,7 +20945,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21145,7 +21151,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21226,7 +21232,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ95">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21557,7 +21563,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -22175,7 +22181,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22587,7 +22593,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -23617,7 +23623,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -24029,7 +24035,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -24235,7 +24241,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24441,7 +24447,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24647,7 +24653,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -25265,7 +25271,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25677,7 +25683,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25883,7 +25889,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -26295,7 +26301,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26376,7 +26382,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ120">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26501,7 +26507,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26707,7 +26713,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26913,7 +26919,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26991,7 +26997,7 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ123">
         <v>0.61</v>
@@ -27531,7 +27537,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27737,7 +27743,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27943,7 +27949,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -28149,7 +28155,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28355,7 +28361,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29591,7 +29597,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29672,7 +29678,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29797,7 +29803,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30415,7 +30421,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30621,7 +30627,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31033,7 +31039,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -31111,7 +31117,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143">
         <v>1.06</v>
@@ -31239,7 +31245,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31938,7 +31944,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -32063,7 +32069,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32475,7 +32481,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32681,7 +32687,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32759,7 +32765,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ151">
         <v>1.44</v>
@@ -32887,7 +32893,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -33093,7 +33099,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33711,7 +33717,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34535,7 +34541,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34947,7 +34953,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -35028,7 +35034,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -35153,7 +35159,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35359,7 +35365,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35977,7 +35983,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36389,7 +36395,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36595,7 +36601,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36801,7 +36807,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -38655,7 +38661,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -39273,7 +39279,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39479,7 +39485,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39557,7 +39563,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ184">
         <v>1.22</v>
@@ -39685,7 +39691,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -40097,7 +40103,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40796,7 +40802,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ190">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40921,7 +40927,7 @@
         <v>212</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>3.3</v>
@@ -41002,7 +41008,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ191">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -41823,7 +41829,7 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ195">
         <v>1.61</v>
@@ -42157,7 +42163,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42775,7 +42781,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q200">
         <v>2.1</v>
@@ -43187,7 +43193,7 @@
         <v>217</v>
       </c>
       <c r="P202" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q202">
         <v>2.07</v>
@@ -43599,7 +43605,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43805,7 +43811,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44423,7 +44429,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44629,7 +44635,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -45247,7 +45253,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45865,7 +45871,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46071,7 +46077,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46149,7 +46155,7 @@
         <v>0.7</v>
       </c>
       <c r="AP216">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ216">
         <v>1.06</v>
@@ -46277,7 +46283,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46564,7 +46570,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ218">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR218">
         <v>1.48</v>
@@ -46689,7 +46695,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46895,7 +46901,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -47101,7 +47107,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -48955,7 +48961,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -49161,7 +49167,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49367,7 +49373,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49573,7 +49579,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49654,7 +49660,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ233">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR233">
         <v>1.38</v>
@@ -49985,7 +49991,7 @@
         <v>238</v>
       </c>
       <c r="P235" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q235">
         <v>2.25</v>
@@ -50397,7 +50403,7 @@
         <v>240</v>
       </c>
       <c r="P237" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50603,7 +50609,7 @@
         <v>158</v>
       </c>
       <c r="P238" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50681,7 +50687,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ238">
         <v>1.56</v>
@@ -50809,7 +50815,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -51015,7 +51021,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q240">
         <v>2.63</v>
@@ -51221,7 +51227,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51839,7 +51845,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -52045,7 +52051,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -53075,7 +53081,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53281,7 +53287,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -54105,7 +54111,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54389,7 +54395,7 @@
         <v>1.33</v>
       </c>
       <c r="AP256">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ256">
         <v>1.29</v>
@@ -54929,7 +54935,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -55341,7 +55347,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -56165,7 +56171,7 @@
         <v>103</v>
       </c>
       <c r="P265" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q265">
         <v>2.5</v>
@@ -56246,7 +56252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ265">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR265">
         <v>1.7</v>
@@ -56371,7 +56377,7 @@
         <v>255</v>
       </c>
       <c r="P266" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q266">
         <v>3.32</v>
@@ -56577,7 +56583,7 @@
         <v>104</v>
       </c>
       <c r="P267" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q267">
         <v>4.5</v>
@@ -56783,7 +56789,7 @@
         <v>256</v>
       </c>
       <c r="P268" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q268">
         <v>2.6</v>
@@ -56989,7 +56995,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -57401,7 +57407,7 @@
         <v>258</v>
       </c>
       <c r="P271" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q271">
         <v>2.86</v>
@@ -59049,7 +59055,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59127,7 +59133,7 @@
         <v>0.46</v>
       </c>
       <c r="AP279">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ279">
         <v>0.78</v>
@@ -59255,7 +59261,7 @@
         <v>264</v>
       </c>
       <c r="P280" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59461,7 +59467,7 @@
         <v>265</v>
       </c>
       <c r="P281" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q281">
         <v>1.95</v>
@@ -59667,7 +59673,7 @@
         <v>266</v>
       </c>
       <c r="P282" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -59873,7 +59879,7 @@
         <v>111</v>
       </c>
       <c r="P283" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q283">
         <v>3.45</v>
@@ -60285,7 +60291,7 @@
         <v>91</v>
       </c>
       <c r="P285" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60491,7 +60497,7 @@
         <v>268</v>
       </c>
       <c r="P286" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q286">
         <v>2.1</v>
@@ -60697,7 +60703,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q287">
         <v>1.91</v>
@@ -60903,7 +60909,7 @@
         <v>270</v>
       </c>
       <c r="P288" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q288">
         <v>2.25</v>
@@ -61109,7 +61115,7 @@
         <v>91</v>
       </c>
       <c r="P289" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61315,7 +61321,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q290">
         <v>4.5</v>
@@ -61521,7 +61527,7 @@
         <v>271</v>
       </c>
       <c r="P291" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q291">
         <v>3.75</v>
@@ -62139,7 +62145,7 @@
         <v>91</v>
       </c>
       <c r="P294" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q294">
         <v>2.25</v>
@@ -63041,7 +63047,7 @@
         <v>1.5</v>
       </c>
       <c r="AP298">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ298">
         <v>1.33</v>
@@ -63169,7 +63175,7 @@
         <v>91</v>
       </c>
       <c r="P299" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q299">
         <v>2.4</v>
@@ -63787,7 +63793,7 @@
         <v>276</v>
       </c>
       <c r="P302" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q302">
         <v>4</v>
@@ -64199,7 +64205,7 @@
         <v>278</v>
       </c>
       <c r="P304" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q304">
         <v>2.08</v>
@@ -64280,7 +64286,7 @@
         <v>2</v>
       </c>
       <c r="AQ304">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR304">
         <v>1.95</v>
@@ -64405,7 +64411,7 @@
         <v>279</v>
       </c>
       <c r="P305" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q305">
         <v>3.35</v>
@@ -64611,7 +64617,7 @@
         <v>280</v>
       </c>
       <c r="P306" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q306">
         <v>2.8</v>
@@ -64817,7 +64823,7 @@
         <v>281</v>
       </c>
       <c r="P307" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q307">
         <v>2.63</v>
@@ -65435,7 +65441,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q310">
         <v>2.4</v>
@@ -66671,7 +66677,7 @@
         <v>288</v>
       </c>
       <c r="P316" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q316">
         <v>3.4</v>
@@ -67289,7 +67295,7 @@
         <v>91</v>
       </c>
       <c r="P319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q319">
         <v>3.2</v>
@@ -67701,7 +67707,7 @@
         <v>105</v>
       </c>
       <c r="P321" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q321">
         <v>2.64</v>
@@ -68194,7 +68200,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ323">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR323">
         <v>1.56</v>
@@ -68525,7 +68531,7 @@
         <v>291</v>
       </c>
       <c r="P325" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q325">
         <v>4.33</v>
@@ -68731,7 +68737,7 @@
         <v>91</v>
       </c>
       <c r="P326" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q326">
         <v>3</v>
@@ -68937,7 +68943,7 @@
         <v>127</v>
       </c>
       <c r="P327" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q327">
         <v>5.5</v>
@@ -69015,7 +69021,7 @@
         <v>1.73</v>
       </c>
       <c r="AP327">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ327">
         <v>1.61</v>
@@ -69349,7 +69355,7 @@
         <v>91</v>
       </c>
       <c r="P329" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q329">
         <v>2.05</v>
@@ -69967,7 +69973,7 @@
         <v>292</v>
       </c>
       <c r="P332" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q332">
         <v>3.4</v>
@@ -70173,7 +70179,7 @@
         <v>91</v>
       </c>
       <c r="P333" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q333">
         <v>2.75</v>
@@ -70791,7 +70797,7 @@
         <v>104</v>
       </c>
       <c r="P336" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q336">
         <v>2.5</v>
@@ -71203,7 +71209,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q338">
         <v>2.95</v>
@@ -71409,7 +71415,7 @@
         <v>91</v>
       </c>
       <c r="P339" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q339">
         <v>2.9</v>
@@ -72027,7 +72033,7 @@
         <v>297</v>
       </c>
       <c r="P342" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72851,7 +72857,7 @@
         <v>91</v>
       </c>
       <c r="P346" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q346">
         <v>3.1</v>
@@ -73469,7 +73475,7 @@
         <v>301</v>
       </c>
       <c r="P349" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q349">
         <v>3.4</v>
@@ -73550,7 +73556,7 @@
         <v>1</v>
       </c>
       <c r="AQ349">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR349">
         <v>1.35</v>
@@ -74087,7 +74093,7 @@
         <v>108</v>
       </c>
       <c r="P352" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q352">
         <v>2.6</v>
@@ -74293,7 +74299,7 @@
         <v>303</v>
       </c>
       <c r="P353" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q353">
         <v>3</v>
@@ -74499,7 +74505,7 @@
         <v>304</v>
       </c>
       <c r="P354" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q354">
         <v>3.65</v>
@@ -74577,7 +74583,7 @@
         <v>1.35</v>
       </c>
       <c r="AP354">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AQ354">
         <v>1.44</v>
@@ -75480,6 +75486,212 @@
       </c>
       <c r="BP358">
         <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7327178</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45611.875</v>
+      </c>
+      <c r="F359">
+        <v>29</v>
+      </c>
+      <c r="G359" t="s">
+        <v>72</v>
+      </c>
+      <c r="H359" t="s">
+        <v>80</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>3</v>
+      </c>
+      <c r="M359">
+        <v>4</v>
+      </c>
+      <c r="N359">
+        <v>7</v>
+      </c>
+      <c r="O359" t="s">
+        <v>306</v>
+      </c>
+      <c r="P359" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q359">
+        <v>4</v>
+      </c>
+      <c r="R359">
+        <v>2.3</v>
+      </c>
+      <c r="S359">
+        <v>2.3</v>
+      </c>
+      <c r="T359">
+        <v>1.28</v>
+      </c>
+      <c r="U359">
+        <v>3.4</v>
+      </c>
+      <c r="V359">
+        <v>2.2</v>
+      </c>
+      <c r="W359">
+        <v>1.6</v>
+      </c>
+      <c r="X359">
+        <v>4.95</v>
+      </c>
+      <c r="Y359">
+        <v>1.15</v>
+      </c>
+      <c r="Z359">
+        <v>2.66</v>
+      </c>
+      <c r="AA359">
+        <v>3.88</v>
+      </c>
+      <c r="AB359">
+        <v>2.38</v>
+      </c>
+      <c r="AC359">
+        <v>1.01</v>
+      </c>
+      <c r="AD359">
+        <v>13</v>
+      </c>
+      <c r="AE359">
+        <v>1.13</v>
+      </c>
+      <c r="AF359">
+        <v>4.85</v>
+      </c>
+      <c r="AG359">
+        <v>1.5</v>
+      </c>
+      <c r="AH359">
+        <v>2.48</v>
+      </c>
+      <c r="AI359">
+        <v>1.48</v>
+      </c>
+      <c r="AJ359">
+        <v>2.4</v>
+      </c>
+      <c r="AK359">
+        <v>1.93</v>
+      </c>
+      <c r="AL359">
+        <v>1.2</v>
+      </c>
+      <c r="AM359">
+        <v>1.25</v>
+      </c>
+      <c r="AN359">
+        <v>1.12</v>
+      </c>
+      <c r="AO359">
+        <v>1.35</v>
+      </c>
+      <c r="AP359">
+        <v>1.06</v>
+      </c>
+      <c r="AQ359">
+        <v>1.44</v>
+      </c>
+      <c r="AR359">
+        <v>1.24</v>
+      </c>
+      <c r="AS359">
+        <v>1.48</v>
+      </c>
+      <c r="AT359">
+        <v>2.72</v>
+      </c>
+      <c r="AU359">
+        <v>7</v>
+      </c>
+      <c r="AV359">
+        <v>9</v>
+      </c>
+      <c r="AW359">
+        <v>14</v>
+      </c>
+      <c r="AX359">
+        <v>18</v>
+      </c>
+      <c r="AY359">
+        <v>28</v>
+      </c>
+      <c r="AZ359">
+        <v>33</v>
+      </c>
+      <c r="BA359">
+        <v>3</v>
+      </c>
+      <c r="BB359">
+        <v>7</v>
+      </c>
+      <c r="BC359">
+        <v>10</v>
+      </c>
+      <c r="BD359">
+        <v>2.15</v>
+      </c>
+      <c r="BE359">
+        <v>8.5</v>
+      </c>
+      <c r="BF359">
+        <v>1.83</v>
+      </c>
+      <c r="BG359">
+        <v>1.13</v>
+      </c>
+      <c r="BH359">
+        <v>5</v>
+      </c>
+      <c r="BI359">
+        <v>1.25</v>
+      </c>
+      <c r="BJ359">
+        <v>3.6</v>
+      </c>
+      <c r="BK359">
+        <v>1.42</v>
+      </c>
+      <c r="BL359">
+        <v>2.62</v>
+      </c>
+      <c r="BM359">
+        <v>1.77</v>
+      </c>
+      <c r="BN359">
+        <v>1.95</v>
+      </c>
+      <c r="BO359">
+        <v>2.09</v>
+      </c>
+      <c r="BP359">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="453">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1734,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP359"/>
+  <dimension ref="A1:BP360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2280,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -6606,7 +6606,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -12374,7 +12374,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -16082,7 +16082,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -18966,7 +18966,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -22262,7 +22262,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -25970,7 +25970,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -28442,7 +28442,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -32562,7 +32562,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -40184,7 +40184,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ187">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -44922,7 +44922,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ210">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR210">
         <v>1.72</v>
@@ -49248,7 +49248,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ231">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR231">
         <v>1.75</v>
@@ -54398,7 +54398,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR256">
         <v>1.27</v>
@@ -58312,7 +58312,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ275">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR275">
         <v>1.46</v>
@@ -66758,7 +66758,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ316">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR316">
         <v>1.55</v>
@@ -67376,7 +67376,7 @@
         <v>1</v>
       </c>
       <c r="AQ319">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR319">
         <v>1.46</v>
@@ -72114,7 +72114,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ342">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR342">
         <v>1.74</v>
@@ -75502,10 +75502,10 @@
         <v>69</v>
       </c>
       <c r="E359" s="2">
-        <v>45611.875</v>
+        <v>45612.08333333334</v>
       </c>
       <c r="F359">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G359" t="s">
         <v>72</v>
@@ -75692,6 +75692,212 @@
       </c>
       <c r="BP359">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7327180</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45613.08333333334</v>
+      </c>
+      <c r="F360">
+        <v>29</v>
+      </c>
+      <c r="G360" t="s">
+        <v>83</v>
+      </c>
+      <c r="H360" t="s">
+        <v>84</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360" t="s">
+        <v>91</v>
+      </c>
+      <c r="P360" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q360">
+        <v>3.6</v>
+      </c>
+      <c r="R360">
+        <v>2.15</v>
+      </c>
+      <c r="S360">
+        <v>2.8</v>
+      </c>
+      <c r="T360">
+        <v>1.38</v>
+      </c>
+      <c r="U360">
+        <v>2.8</v>
+      </c>
+      <c r="V360">
+        <v>2.7</v>
+      </c>
+      <c r="W360">
+        <v>1.4</v>
+      </c>
+      <c r="X360">
+        <v>6.5</v>
+      </c>
+      <c r="Y360">
+        <v>1.08</v>
+      </c>
+      <c r="Z360">
+        <v>3.1</v>
+      </c>
+      <c r="AA360">
+        <v>3.2</v>
+      </c>
+      <c r="AB360">
+        <v>2.1</v>
+      </c>
+      <c r="AC360">
+        <v>1.03</v>
+      </c>
+      <c r="AD360">
+        <v>9</v>
+      </c>
+      <c r="AE360">
+        <v>1.29</v>
+      </c>
+      <c r="AF360">
+        <v>3.3</v>
+      </c>
+      <c r="AG360">
+        <v>1.91</v>
+      </c>
+      <c r="AH360">
+        <v>1.75</v>
+      </c>
+      <c r="AI360">
+        <v>1.73</v>
+      </c>
+      <c r="AJ360">
+        <v>2</v>
+      </c>
+      <c r="AK360">
+        <v>1.62</v>
+      </c>
+      <c r="AL360">
+        <v>1.33</v>
+      </c>
+      <c r="AM360">
+        <v>1.38</v>
+      </c>
+      <c r="AN360">
+        <v>1</v>
+      </c>
+      <c r="AO360">
+        <v>1.29</v>
+      </c>
+      <c r="AP360">
+        <v>1</v>
+      </c>
+      <c r="AQ360">
+        <v>1.28</v>
+      </c>
+      <c r="AR360">
+        <v>1.5</v>
+      </c>
+      <c r="AS360">
+        <v>1.39</v>
+      </c>
+      <c r="AT360">
+        <v>2.89</v>
+      </c>
+      <c r="AU360">
+        <v>5</v>
+      </c>
+      <c r="AV360">
+        <v>8</v>
+      </c>
+      <c r="AW360">
+        <v>4</v>
+      </c>
+      <c r="AX360">
+        <v>6</v>
+      </c>
+      <c r="AY360">
+        <v>16</v>
+      </c>
+      <c r="AZ360">
+        <v>21</v>
+      </c>
+      <c r="BA360">
+        <v>2</v>
+      </c>
+      <c r="BB360">
+        <v>8</v>
+      </c>
+      <c r="BC360">
+        <v>10</v>
+      </c>
+      <c r="BD360">
+        <v>1.95</v>
+      </c>
+      <c r="BE360">
+        <v>8.5</v>
+      </c>
+      <c r="BF360">
+        <v>2</v>
+      </c>
+      <c r="BG360">
+        <v>1.15</v>
+      </c>
+      <c r="BH360">
+        <v>4.4</v>
+      </c>
+      <c r="BI360">
+        <v>1.29</v>
+      </c>
+      <c r="BJ360">
+        <v>3.14</v>
+      </c>
+      <c r="BK360">
+        <v>1.6</v>
+      </c>
+      <c r="BL360">
+        <v>2.31</v>
+      </c>
+      <c r="BM360">
+        <v>1.91</v>
+      </c>
+      <c r="BN360">
+        <v>1.8</v>
+      </c>
+      <c r="BO360">
+        <v>2.43</v>
+      </c>
+      <c r="BP360">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -75708,7 +75708,7 @@
         <v>69</v>
       </c>
       <c r="E360" s="2">
-        <v>45613.08333333334</v>
+        <v>45612.875</v>
       </c>
       <c r="F360">
         <v>29</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -75708,7 +75708,7 @@
         <v>69</v>
       </c>
       <c r="E360" s="2">
-        <v>45612.875</v>
+        <v>45613.08333333334</v>
       </c>
       <c r="F360">
         <v>29</v>
@@ -75834,22 +75834,22 @@
         <v>2.89</v>
       </c>
       <c r="AU360">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV360">
         <v>8</v>
       </c>
       <c r="AW360">
+        <v>2</v>
+      </c>
+      <c r="AX360">
         <v>4</v>
       </c>
-      <c r="AX360">
+      <c r="AY360">
         <v>6</v>
       </c>
-      <c r="AY360">
-        <v>16</v>
-      </c>
       <c r="AZ360">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="BA360">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="453">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1734,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP360"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1.61</v>
@@ -11341,7 +11341,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -15873,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>0.61</v>
@@ -19581,7 +19581,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
         <v>1.44</v>
@@ -21847,7 +21847,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
         <v>1.11</v>
@@ -26379,7 +26379,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
         <v>1.44</v>
@@ -30293,7 +30293,7 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ139">
         <v>1.56</v>
@@ -34207,7 +34207,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158">
         <v>1.94</v>
@@ -35649,7 +35649,7 @@
         <v>2.38</v>
       </c>
       <c r="AP165">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ165">
         <v>2.06</v>
@@ -40181,7 +40181,7 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ187">
         <v>1.28</v>
@@ -44095,7 +44095,7 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ206">
         <v>0.89</v>
@@ -46773,7 +46773,7 @@
         <v>0.73</v>
       </c>
       <c r="AP219">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ219">
         <v>1.44</v>
@@ -50893,7 +50893,7 @@
         <v>0.27</v>
       </c>
       <c r="AP239">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ239">
         <v>0.78</v>
@@ -63253,7 +63253,7 @@
         <v>1.29</v>
       </c>
       <c r="AP299">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ299">
         <v>1.5</v>
@@ -67991,7 +67991,7 @@
         <v>1.13</v>
       </c>
       <c r="AP322">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ322">
         <v>1.22</v>
@@ -71699,7 +71699,7 @@
         <v>1.19</v>
       </c>
       <c r="AP340">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ340">
         <v>1.06</v>
@@ -75407,7 +75407,7 @@
         <v>1.71</v>
       </c>
       <c r="AP358">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ358">
         <v>1.61</v>
@@ -75898,6 +75898,212 @@
       </c>
       <c r="BP360">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7327166</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45618.29166666666</v>
+      </c>
+      <c r="F361">
+        <v>28</v>
+      </c>
+      <c r="G361" t="s">
+        <v>87</v>
+      </c>
+      <c r="H361" t="s">
+        <v>81</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>1</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>218</v>
+      </c>
+      <c r="P361" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q361">
+        <v>2.7</v>
+      </c>
+      <c r="R361">
+        <v>2.38</v>
+      </c>
+      <c r="S361">
+        <v>3.25</v>
+      </c>
+      <c r="T361">
+        <v>1.29</v>
+      </c>
+      <c r="U361">
+        <v>3.3</v>
+      </c>
+      <c r="V361">
+        <v>2.25</v>
+      </c>
+      <c r="W361">
+        <v>1.57</v>
+      </c>
+      <c r="X361">
+        <v>5</v>
+      </c>
+      <c r="Y361">
+        <v>1.13</v>
+      </c>
+      <c r="Z361">
+        <v>2.45</v>
+      </c>
+      <c r="AA361">
+        <v>3.5</v>
+      </c>
+      <c r="AB361">
+        <v>2.65</v>
+      </c>
+      <c r="AC361">
+        <v>1.01</v>
+      </c>
+      <c r="AD361">
+        <v>11</v>
+      </c>
+      <c r="AE361">
+        <v>1.18</v>
+      </c>
+      <c r="AF361">
+        <v>4.33</v>
+      </c>
+      <c r="AG361">
+        <v>1.61</v>
+      </c>
+      <c r="AH361">
+        <v>2.23</v>
+      </c>
+      <c r="AI361">
+        <v>1.53</v>
+      </c>
+      <c r="AJ361">
+        <v>2.4</v>
+      </c>
+      <c r="AK361">
+        <v>1.42</v>
+      </c>
+      <c r="AL361">
+        <v>1.22</v>
+      </c>
+      <c r="AM361">
+        <v>1.57</v>
+      </c>
+      <c r="AN361">
+        <v>1.59</v>
+      </c>
+      <c r="AO361">
+        <v>1.06</v>
+      </c>
+      <c r="AP361">
+        <v>1.56</v>
+      </c>
+      <c r="AQ361">
+        <v>1.06</v>
+      </c>
+      <c r="AR361">
+        <v>1.6</v>
+      </c>
+      <c r="AS361">
+        <v>1.59</v>
+      </c>
+      <c r="AT361">
+        <v>3.19</v>
+      </c>
+      <c r="AU361">
+        <v>5</v>
+      </c>
+      <c r="AV361">
+        <v>3</v>
+      </c>
+      <c r="AW361">
+        <v>3</v>
+      </c>
+      <c r="AX361">
+        <v>5</v>
+      </c>
+      <c r="AY361">
+        <v>11</v>
+      </c>
+      <c r="AZ361">
+        <v>12</v>
+      </c>
+      <c r="BA361">
+        <v>5</v>
+      </c>
+      <c r="BB361">
+        <v>6</v>
+      </c>
+      <c r="BC361">
+        <v>11</v>
+      </c>
+      <c r="BD361">
+        <v>1.8</v>
+      </c>
+      <c r="BE361">
+        <v>8</v>
+      </c>
+      <c r="BF361">
+        <v>2.3</v>
+      </c>
+      <c r="BG361">
+        <v>1.2</v>
+      </c>
+      <c r="BH361">
+        <v>4.4</v>
+      </c>
+      <c r="BI361">
+        <v>1.31</v>
+      </c>
+      <c r="BJ361">
+        <v>3.04</v>
+      </c>
+      <c r="BK361">
+        <v>1.7</v>
+      </c>
+      <c r="BL361">
+        <v>2.05</v>
+      </c>
+      <c r="BM361">
+        <v>1.96</v>
+      </c>
+      <c r="BN361">
+        <v>1.79</v>
+      </c>
+      <c r="BO361">
+        <v>2.52</v>
+      </c>
+      <c r="BP361">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="461">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -937,6 +937,18 @@
     <t>['4', '83', '90+2']</t>
   </si>
   <si>
+    <t>['42', '49', '71', '83']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['27', '67']</t>
+  </si>
+  <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1052,9 +1064,6 @@
   </si>
   <si>
     <t>['14', '25']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['67', '85', '90+3']</t>
@@ -1373,6 +1382,21 @@
   </si>
   <si>
     <t>['45+4', '47', '64', '71']</t>
+  </si>
+  <si>
+    <t>['16', '22', '58', '65', '90+4']</t>
+  </si>
+  <si>
+    <t>['53', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['8', '10', '66']</t>
+  </si>
+  <si>
+    <t>['10', '14']</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2074,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2199,7 +2223,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2277,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ3">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2405,7 +2429,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2483,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ4">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2689,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ5">
         <v>0.78</v>
@@ -2817,7 +2841,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -3101,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3229,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3307,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3435,7 +3459,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3513,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3719,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3847,7 +3871,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3925,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ11">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4053,7 +4077,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4259,7 +4283,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4465,7 +4489,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4749,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ15">
         <v>1.94</v>
@@ -4877,7 +4901,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5289,7 +5313,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5495,7 +5519,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -6113,7 +6137,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6191,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ22">
         <v>1.06</v>
@@ -6397,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ23">
         <v>1.11</v>
@@ -6603,10 +6627,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ24">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6812,7 +6836,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -7015,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ26">
         <v>1.44</v>
@@ -7143,7 +7167,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7224,7 +7248,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -7430,7 +7454,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7633,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29">
         <v>1.61</v>
@@ -7842,7 +7866,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7967,7 +7991,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -8045,10 +8069,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -8173,7 +8197,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8585,7 +8609,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8997,7 +9021,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9075,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ36">
         <v>1.11</v>
@@ -9203,7 +9227,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9281,7 +9305,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ37">
         <v>1.28</v>
@@ -9409,7 +9433,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9490,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9696,7 +9720,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9821,7 +9845,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9899,10 +9923,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -10027,7 +10051,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10105,10 +10129,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -10233,7 +10257,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10314,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10517,7 +10541,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ43">
         <v>1.06</v>
@@ -10932,7 +10956,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -11057,7 +11081,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11135,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11753,10 +11777,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11959,7 +11983,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ50">
         <v>1.44</v>
@@ -12168,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12371,10 +12395,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ52">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12577,7 +12601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -12705,7 +12729,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12783,7 +12807,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.61</v>
@@ -12992,7 +13016,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -13117,7 +13141,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13195,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>1.61</v>
@@ -13401,7 +13425,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13610,7 +13634,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ58">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13735,7 +13759,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13941,7 +13965,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14022,7 +14046,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -14228,7 +14252,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ61">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14431,7 +14455,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ62">
         <v>1.06</v>
@@ -14559,7 +14583,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14640,7 +14664,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14765,7 +14789,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14843,7 +14867,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ64">
         <v>1.22</v>
@@ -14971,7 +14995,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15383,7 +15407,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15667,7 +15691,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15876,7 +15900,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -16082,7 +16106,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16288,7 +16312,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16491,10 +16515,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ72">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16619,7 +16643,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16825,7 +16849,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16903,7 +16927,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ74">
         <v>0.78</v>
@@ -17109,7 +17133,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ75">
         <v>1.11</v>
@@ -17315,7 +17339,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ76">
         <v>1.61</v>
@@ -17524,7 +17548,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17649,7 +17673,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17727,10 +17751,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17933,10 +17957,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -18061,7 +18085,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18139,10 +18163,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -18267,7 +18291,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18348,7 +18372,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ81">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18679,7 +18703,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18885,7 +18909,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18966,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -19169,10 +19193,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -19375,7 +19399,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ86">
         <v>0.89</v>
@@ -19584,7 +19608,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19915,7 +19939,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -20121,7 +20145,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20199,7 +20223,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ90">
         <v>1.22</v>
@@ -20327,7 +20351,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20611,7 +20635,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ92">
         <v>1.94</v>
@@ -20820,7 +20844,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ93">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20945,7 +20969,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21023,10 +21047,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -21151,7 +21175,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21229,10 +21253,10 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21435,7 +21459,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ96">
         <v>1.33</v>
@@ -21563,7 +21587,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21644,7 +21668,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -22053,10 +22077,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ99">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -22181,7 +22205,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22262,7 +22286,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ100">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22593,7 +22617,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22671,7 +22695,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ102">
         <v>1.61</v>
@@ -23086,7 +23110,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -23289,7 +23313,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -23495,7 +23519,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ106">
         <v>0.78</v>
@@ -23623,7 +23647,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23907,10 +23931,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ108">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -24035,7 +24059,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -24116,7 +24140,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -24241,7 +24265,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24319,10 +24343,10 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ110">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -24447,7 +24471,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24653,7 +24677,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24731,7 +24755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ112">
         <v>0.89</v>
@@ -25143,10 +25167,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -25271,7 +25295,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25558,7 +25582,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25683,7 +25707,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25889,7 +25913,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25967,10 +25991,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ118">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -26173,10 +26197,10 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26301,7 +26325,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26382,7 +26406,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ120">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26507,7 +26531,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26585,10 +26609,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26713,7 +26737,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26919,7 +26943,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26997,10 +27021,10 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ123">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -27203,7 +27227,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.94</v>
@@ -27537,7 +27561,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27615,10 +27639,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27743,7 +27767,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27821,10 +27845,10 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ127">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27949,7 +27973,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -28155,7 +28179,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28361,7 +28385,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28442,7 +28466,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28645,10 +28669,10 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -29057,7 +29081,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ133">
         <v>1.44</v>
@@ -29263,10 +29287,10 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ134">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29469,7 +29493,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135">
         <v>1.22</v>
@@ -29597,7 +29621,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29675,10 +29699,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29803,7 +29827,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29884,7 +29908,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -30296,7 +30320,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30421,7 +30445,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30499,7 +30523,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ140">
         <v>1.22</v>
@@ -30627,7 +30651,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30911,7 +30935,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ142">
         <v>1.61</v>
@@ -31039,7 +31063,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -31117,10 +31141,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ143">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -31245,7 +31269,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31532,7 +31556,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31738,7 +31762,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31944,7 +31968,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -32069,7 +32093,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32147,7 +32171,7 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ148">
         <v>0.78</v>
@@ -32353,7 +32377,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.28</v>
@@ -32481,7 +32505,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32562,7 +32586,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ150">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32687,7 +32711,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32765,7 +32789,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ151">
         <v>1.44</v>
@@ -32893,7 +32917,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32971,7 +32995,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ152">
         <v>1.33</v>
@@ -33099,7 +33123,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33589,7 +33613,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ155">
         <v>1.61</v>
@@ -33717,7 +33741,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33795,10 +33819,10 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ156">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -34004,7 +34028,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -34541,7 +34565,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34622,7 +34646,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34953,7 +34977,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -35034,7 +35058,7 @@
         <v>2</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -35159,7 +35183,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35237,7 +35261,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
         <v>1.28</v>
@@ -35365,7 +35389,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35443,10 +35467,10 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35652,7 +35676,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35983,7 +36007,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36061,7 +36085,7 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ167">
         <v>0.78</v>
@@ -36395,7 +36419,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36473,7 +36497,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36601,7 +36625,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36807,7 +36831,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37091,10 +37115,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ172">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -37506,7 +37530,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ174">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR174">
         <v>1.8</v>
@@ -37709,10 +37733,10 @@
         <v>0.57</v>
       </c>
       <c r="AP175">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ175">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -38533,7 +38557,7 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ179">
         <v>1.44</v>
@@ -38661,7 +38685,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38945,7 +38969,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ181">
         <v>1.33</v>
@@ -39151,7 +39175,7 @@
         <v>1.88</v>
       </c>
       <c r="AP182">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ182">
         <v>1.11</v>
@@ -39279,7 +39303,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39357,10 +39381,10 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ183">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR183">
         <v>1.43</v>
@@ -39485,7 +39509,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39563,7 +39587,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ184">
         <v>1.22</v>
@@ -39691,7 +39715,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39772,7 +39796,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ185">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39975,7 +39999,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ186">
         <v>1.61</v>
@@ -40103,7 +40127,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40184,7 +40208,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ187">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -40390,7 +40414,7 @@
         <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40593,10 +40617,10 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40802,7 +40826,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ190">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40927,7 +40951,7 @@
         <v>212</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>3.3</v>
@@ -41005,10 +41029,10 @@
         <v>1.4</v>
       </c>
       <c r="AP191">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ191">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -41214,7 +41238,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR192">
         <v>1.29</v>
@@ -41829,7 +41853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ195">
         <v>1.61</v>
@@ -42035,10 +42059,10 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ196">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR196">
         <v>1.01</v>
@@ -42163,7 +42187,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42447,10 +42471,10 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ198">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -42781,7 +42805,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q200">
         <v>2.1</v>
@@ -43193,7 +43217,7 @@
         <v>217</v>
       </c>
       <c r="P202" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q202">
         <v>2.07</v>
@@ -43605,7 +43629,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43811,7 +43835,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43889,7 +43913,7 @@
         <v>1.67</v>
       </c>
       <c r="AP205">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ205">
         <v>1.11</v>
@@ -44429,7 +44453,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44635,7 +44659,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44713,10 +44737,10 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44922,7 +44946,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ210">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR210">
         <v>1.72</v>
@@ -45128,7 +45152,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ211">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR211">
         <v>1.71</v>
@@ -45253,7 +45277,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45334,7 +45358,7 @@
         <v>2</v>
       </c>
       <c r="AQ212">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR212">
         <v>2.16</v>
@@ -45743,7 +45767,7 @@
         <v>1.5</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ214">
         <v>1.11</v>
@@ -45871,7 +45895,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45949,10 +45973,10 @@
         <v>0.7</v>
       </c>
       <c r="AP215">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ215">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -46077,7 +46101,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46155,10 +46179,10 @@
         <v>0.7</v>
       </c>
       <c r="AP216">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ216">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR216">
         <v>1.33</v>
@@ -46283,7 +46307,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46361,7 +46385,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ217">
         <v>1.22</v>
@@ -46570,7 +46594,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ218">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR218">
         <v>1.48</v>
@@ -46695,7 +46719,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46901,7 +46925,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46979,10 +47003,10 @@
         <v>1.89</v>
       </c>
       <c r="AP220">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR220">
         <v>1.47</v>
@@ -47107,7 +47131,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47185,10 +47209,10 @@
         <v>1.18</v>
       </c>
       <c r="AP221">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ221">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -47394,7 +47418,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR222">
         <v>1.28</v>
@@ -47803,7 +47827,7 @@
         <v>2.36</v>
       </c>
       <c r="AP224">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ224">
         <v>1.94</v>
@@ -48009,7 +48033,7 @@
         <v>1.27</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ225">
         <v>1.06</v>
@@ -48424,7 +48448,7 @@
         <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR227">
         <v>1.37</v>
@@ -48833,7 +48857,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
         <v>0.89</v>
@@ -48961,7 +48985,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -49042,7 +49066,7 @@
         <v>1</v>
       </c>
       <c r="AQ230">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR230">
         <v>1.42</v>
@@ -49167,7 +49191,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49248,7 +49272,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ231">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR231">
         <v>1.75</v>
@@ -49373,7 +49397,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49454,7 +49478,7 @@
         <v>2</v>
       </c>
       <c r="AQ232">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR232">
         <v>1.34</v>
@@ -49579,7 +49603,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49657,10 +49681,10 @@
         <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ233">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR233">
         <v>1.38</v>
@@ -49863,7 +49887,7 @@
         <v>1.36</v>
       </c>
       <c r="AP234">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ234">
         <v>1.61</v>
@@ -49991,7 +50015,7 @@
         <v>238</v>
       </c>
       <c r="P235" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q235">
         <v>2.25</v>
@@ -50275,7 +50299,7 @@
         <v>1.25</v>
       </c>
       <c r="AP236">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ236">
         <v>1.28</v>
@@ -50403,7 +50427,7 @@
         <v>240</v>
       </c>
       <c r="P237" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50481,10 +50505,10 @@
         <v>0.73</v>
       </c>
       <c r="AP237">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR237">
         <v>1.46</v>
@@ -50609,7 +50633,7 @@
         <v>158</v>
       </c>
       <c r="P238" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50687,10 +50711,10 @@
         <v>1.33</v>
       </c>
       <c r="AP238">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ238">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR238">
         <v>1.3</v>
@@ -50815,7 +50839,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -51021,7 +51045,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q240">
         <v>2.63</v>
@@ -51227,7 +51251,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51511,7 +51535,7 @@
         <v>2.42</v>
       </c>
       <c r="AP242">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ242">
         <v>1.94</v>
@@ -51720,7 +51744,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ243">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR243">
         <v>1.5</v>
@@ -51845,7 +51869,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -52051,7 +52075,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52129,7 +52153,7 @@
         <v>0.75</v>
       </c>
       <c r="AP245">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ245">
         <v>0.89</v>
@@ -52335,7 +52359,7 @@
         <v>1.58</v>
       </c>
       <c r="AP246">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ246">
         <v>1.61</v>
@@ -52544,7 +52568,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ247">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR247">
         <v>1.68</v>
@@ -52750,7 +52774,7 @@
         <v>2</v>
       </c>
       <c r="AQ248">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR248">
         <v>1.34</v>
@@ -52953,7 +52977,7 @@
         <v>1.64</v>
       </c>
       <c r="AP249">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ249">
         <v>1.33</v>
@@ -53081,7 +53105,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53287,7 +53311,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53571,7 +53595,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ252">
         <v>1.44</v>
@@ -53983,10 +54007,10 @@
         <v>1.58</v>
       </c>
       <c r="AP254">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ254">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR254">
         <v>1.5</v>
@@ -54111,7 +54135,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54192,7 +54216,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ255">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR255">
         <v>1.29</v>
@@ -54395,10 +54419,10 @@
         <v>1.33</v>
       </c>
       <c r="AP256">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ256">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR256">
         <v>1.27</v>
@@ -54601,7 +54625,7 @@
         <v>1.5</v>
       </c>
       <c r="AP257">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ257">
         <v>1.61</v>
@@ -54810,7 +54834,7 @@
         <v>1</v>
       </c>
       <c r="AQ258">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR258">
         <v>1.43</v>
@@ -54935,7 +54959,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -55016,7 +55040,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ259">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR259">
         <v>1.74</v>
@@ -55219,10 +55243,10 @@
         <v>1.46</v>
       </c>
       <c r="AP260">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ260">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR260">
         <v>1.5</v>
@@ -55347,7 +55371,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55428,7 +55452,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ261">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR261">
         <v>1.3</v>
@@ -55631,7 +55655,7 @@
         <v>0.77</v>
       </c>
       <c r="AP262">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ262">
         <v>0.89</v>
@@ -55840,7 +55864,7 @@
         <v>2</v>
       </c>
       <c r="AQ263">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR263">
         <v>1.38</v>
@@ -56171,7 +56195,7 @@
         <v>103</v>
       </c>
       <c r="P265" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q265">
         <v>2.5</v>
@@ -56252,7 +56276,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ265">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR265">
         <v>1.7</v>
@@ -56377,7 +56401,7 @@
         <v>255</v>
       </c>
       <c r="P266" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q266">
         <v>3.32</v>
@@ -56455,7 +56479,7 @@
         <v>1.17</v>
       </c>
       <c r="AP266">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ266">
         <v>1.06</v>
@@ -56583,7 +56607,7 @@
         <v>104</v>
       </c>
       <c r="P267" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q267">
         <v>4.5</v>
@@ -56661,7 +56685,7 @@
         <v>1.69</v>
       </c>
       <c r="AP267">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ267">
         <v>1.61</v>
@@ -56789,7 +56813,7 @@
         <v>256</v>
       </c>
       <c r="P268" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q268">
         <v>2.6</v>
@@ -56867,10 +56891,10 @@
         <v>1.36</v>
       </c>
       <c r="AP268">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ268">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR268">
         <v>1.38</v>
@@ -56995,7 +57019,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -57076,7 +57100,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ269">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR269">
         <v>1.68</v>
@@ -57279,7 +57303,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ270">
         <v>1.28</v>
@@ -57407,7 +57431,7 @@
         <v>258</v>
       </c>
       <c r="P271" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q271">
         <v>2.86</v>
@@ -57897,7 +57921,7 @@
         <v>1.23</v>
       </c>
       <c r="AP273">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ273">
         <v>1.11</v>
@@ -58106,7 +58130,7 @@
         <v>1</v>
       </c>
       <c r="AQ274">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR274">
         <v>1.4</v>
@@ -58309,10 +58333,10 @@
         <v>1.23</v>
       </c>
       <c r="AP275">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ275">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR275">
         <v>1.46</v>
@@ -58721,7 +58745,7 @@
         <v>2.31</v>
       </c>
       <c r="AP277">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ277">
         <v>1.94</v>
@@ -58930,7 +58954,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ278">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR278">
         <v>1.67</v>
@@ -59055,7 +59079,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59133,7 +59157,7 @@
         <v>0.46</v>
       </c>
       <c r="AP279">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ279">
         <v>0.78</v>
@@ -59261,7 +59285,7 @@
         <v>264</v>
       </c>
       <c r="P280" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59339,10 +59363,10 @@
         <v>1.08</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ280">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR280">
         <v>1.35</v>
@@ -59467,7 +59491,7 @@
         <v>265</v>
       </c>
       <c r="P281" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q281">
         <v>1.95</v>
@@ -59548,7 +59572,7 @@
         <v>2</v>
       </c>
       <c r="AQ281">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR281">
         <v>1.96</v>
@@ -59673,7 +59697,7 @@
         <v>266</v>
       </c>
       <c r="P282" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -59751,7 +59775,7 @@
         <v>1.36</v>
       </c>
       <c r="AP282">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ282">
         <v>1.61</v>
@@ -59879,7 +59903,7 @@
         <v>111</v>
       </c>
       <c r="P283" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q283">
         <v>3.45</v>
@@ -60166,7 +60190,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ284">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR284">
         <v>1.34</v>
@@ -60291,7 +60315,7 @@
         <v>91</v>
       </c>
       <c r="P285" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60369,10 +60393,10 @@
         <v>1.93</v>
       </c>
       <c r="AP285">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ285">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR285">
         <v>1.28</v>
@@ -60497,7 +60521,7 @@
         <v>268</v>
       </c>
       <c r="P286" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q286">
         <v>2.1</v>
@@ -60578,7 +60602,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ286">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR286">
         <v>1.71</v>
@@ -60703,7 +60727,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q287">
         <v>1.91</v>
@@ -60784,7 +60808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ287">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR287">
         <v>1.73</v>
@@ -60909,7 +60933,7 @@
         <v>270</v>
       </c>
       <c r="P288" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q288">
         <v>2.25</v>
@@ -61115,7 +61139,7 @@
         <v>91</v>
       </c>
       <c r="P289" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61321,7 +61345,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q290">
         <v>4.5</v>
@@ -61399,7 +61423,7 @@
         <v>2.21</v>
       </c>
       <c r="AP290">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ290">
         <v>1.94</v>
@@ -61527,7 +61551,7 @@
         <v>271</v>
       </c>
       <c r="P291" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q291">
         <v>3.75</v>
@@ -61814,7 +61838,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR292">
         <v>1.6</v>
@@ -62017,7 +62041,7 @@
         <v>1.33</v>
       </c>
       <c r="AP293">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ293">
         <v>1.44</v>
@@ -62145,7 +62169,7 @@
         <v>91</v>
       </c>
       <c r="P294" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q294">
         <v>2.25</v>
@@ -62223,7 +62247,7 @@
         <v>0.71</v>
       </c>
       <c r="AP294">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ294">
         <v>0.89</v>
@@ -62635,7 +62659,7 @@
         <v>1.5</v>
       </c>
       <c r="AP296">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ296">
         <v>1.28</v>
@@ -63047,7 +63071,7 @@
         <v>1.5</v>
       </c>
       <c r="AP298">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ298">
         <v>1.33</v>
@@ -63175,7 +63199,7 @@
         <v>91</v>
       </c>
       <c r="P299" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q299">
         <v>2.4</v>
@@ -63256,7 +63280,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ299">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR299">
         <v>1.69</v>
@@ -63459,7 +63483,7 @@
         <v>0.64</v>
       </c>
       <c r="AP300">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ300">
         <v>0.78</v>
@@ -63665,10 +63689,10 @@
         <v>1</v>
       </c>
       <c r="AP301">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ301">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR301">
         <v>1.03</v>
@@ -63793,7 +63817,7 @@
         <v>276</v>
       </c>
       <c r="P302" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q302">
         <v>4</v>
@@ -63871,10 +63895,10 @@
         <v>2</v>
       </c>
       <c r="AP302">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ302">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR302">
         <v>1.46</v>
@@ -64077,10 +64101,10 @@
         <v>0.67</v>
       </c>
       <c r="AP303">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ303">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR303">
         <v>1.47</v>
@@ -64205,7 +64229,7 @@
         <v>278</v>
       </c>
       <c r="P304" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q304">
         <v>2.08</v>
@@ -64286,7 +64310,7 @@
         <v>2</v>
       </c>
       <c r="AQ304">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR304">
         <v>1.95</v>
@@ -64411,7 +64435,7 @@
         <v>279</v>
       </c>
       <c r="P305" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q305">
         <v>3.35</v>
@@ -64492,7 +64516,7 @@
         <v>1</v>
       </c>
       <c r="AQ305">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR305">
         <v>1.47</v>
@@ -64617,7 +64641,7 @@
         <v>280</v>
       </c>
       <c r="P306" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q306">
         <v>2.8</v>
@@ -64695,7 +64719,7 @@
         <v>1</v>
       </c>
       <c r="AP306">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ306">
         <v>1.22</v>
@@ -64823,7 +64847,7 @@
         <v>281</v>
       </c>
       <c r="P307" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q307">
         <v>2.63</v>
@@ -65110,7 +65134,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ308">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR308">
         <v>1.32</v>
@@ -65313,7 +65337,7 @@
         <v>0.87</v>
       </c>
       <c r="AP309">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ309">
         <v>0.89</v>
@@ -65441,7 +65465,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q310">
         <v>2.4</v>
@@ -65522,7 +65546,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ310">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR310">
         <v>1.66</v>
@@ -65931,7 +65955,7 @@
         <v>1.2</v>
       </c>
       <c r="AP312">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ312">
         <v>1.06</v>
@@ -66552,7 +66576,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ315">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR315">
         <v>1.65</v>
@@ -66677,7 +66701,7 @@
         <v>288</v>
       </c>
       <c r="P316" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q316">
         <v>3.4</v>
@@ -66755,10 +66779,10 @@
         <v>1.14</v>
       </c>
       <c r="AP316">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ316">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR316">
         <v>1.55</v>
@@ -66961,10 +66985,10 @@
         <v>1.47</v>
       </c>
       <c r="AP317">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ317">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR317">
         <v>1.39</v>
@@ -67167,7 +67191,7 @@
         <v>1.27</v>
       </c>
       <c r="AP318">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ318">
         <v>1.11</v>
@@ -67295,7 +67319,7 @@
         <v>91</v>
       </c>
       <c r="P319" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q319">
         <v>3.2</v>
@@ -67373,10 +67397,10 @@
         <v>1.07</v>
       </c>
       <c r="AP319">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ319">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR319">
         <v>1.46</v>
@@ -67582,7 +67606,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ320">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR320">
         <v>1.26</v>
@@ -67707,7 +67731,7 @@
         <v>105</v>
       </c>
       <c r="P321" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q321">
         <v>2.64</v>
@@ -67785,10 +67809,10 @@
         <v>0.93</v>
       </c>
       <c r="AP321">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ321">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR321">
         <v>1.41</v>
@@ -68197,10 +68221,10 @@
         <v>1.33</v>
       </c>
       <c r="AP323">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ323">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR323">
         <v>1.56</v>
@@ -68531,7 +68555,7 @@
         <v>291</v>
       </c>
       <c r="P325" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q325">
         <v>4.33</v>
@@ -68612,7 +68636,7 @@
         <v>1</v>
       </c>
       <c r="AQ325">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR325">
         <v>1.48</v>
@@ -68737,7 +68761,7 @@
         <v>91</v>
       </c>
       <c r="P326" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q326">
         <v>3</v>
@@ -68815,7 +68839,7 @@
         <v>1.25</v>
       </c>
       <c r="AP326">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ326">
         <v>1.44</v>
@@ -68943,7 +68967,7 @@
         <v>127</v>
       </c>
       <c r="P327" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q327">
         <v>5.5</v>
@@ -69021,7 +69045,7 @@
         <v>1.73</v>
       </c>
       <c r="AP327">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ327">
         <v>1.61</v>
@@ -69230,7 +69254,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ328">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR328">
         <v>1.76</v>
@@ -69355,7 +69379,7 @@
         <v>91</v>
       </c>
       <c r="P329" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q329">
         <v>2.05</v>
@@ -69436,7 +69460,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ329">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR329">
         <v>1.64</v>
@@ -69973,7 +69997,7 @@
         <v>292</v>
       </c>
       <c r="P332" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q332">
         <v>3.4</v>
@@ -70051,7 +70075,7 @@
         <v>2.13</v>
       </c>
       <c r="AP332">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ332">
         <v>1.94</v>
@@ -70179,7 +70203,7 @@
         <v>91</v>
       </c>
       <c r="P333" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q333">
         <v>2.75</v>
@@ -70257,7 +70281,7 @@
         <v>0.63</v>
       </c>
       <c r="AP333">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ333">
         <v>0.78</v>
@@ -70466,7 +70490,7 @@
         <v>1</v>
       </c>
       <c r="AQ334">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR334">
         <v>1.47</v>
@@ -70669,7 +70693,7 @@
         <v>1.81</v>
       </c>
       <c r="AP335">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ335">
         <v>1.61</v>
@@ -70797,7 +70821,7 @@
         <v>104</v>
       </c>
       <c r="P336" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q336">
         <v>2.5</v>
@@ -70875,7 +70899,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP336">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ336">
         <v>0.89</v>
@@ -71081,10 +71105,10 @@
         <v>1.13</v>
       </c>
       <c r="AP337">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ337">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR337">
         <v>1.43</v>
@@ -71209,7 +71233,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q338">
         <v>2.95</v>
@@ -71415,7 +71439,7 @@
         <v>91</v>
       </c>
       <c r="P339" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q339">
         <v>2.9</v>
@@ -71493,7 +71517,7 @@
         <v>1.53</v>
       </c>
       <c r="AP339">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ339">
         <v>1.61</v>
@@ -71908,7 +71932,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ341">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR341">
         <v>1.62</v>
@@ -72033,7 +72057,7 @@
         <v>297</v>
       </c>
       <c r="P342" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72114,7 +72138,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ342">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR342">
         <v>1.74</v>
@@ -72732,7 +72756,7 @@
         <v>2</v>
       </c>
       <c r="AQ345">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR345">
         <v>1.94</v>
@@ -72857,7 +72881,7 @@
         <v>91</v>
       </c>
       <c r="P346" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q346">
         <v>3.1</v>
@@ -73347,7 +73371,7 @@
         <v>1.12</v>
       </c>
       <c r="AP348">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ348">
         <v>1.06</v>
@@ -73475,7 +73499,7 @@
         <v>301</v>
       </c>
       <c r="P349" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q349">
         <v>3.4</v>
@@ -73556,7 +73580,7 @@
         <v>1</v>
       </c>
       <c r="AQ349">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR349">
         <v>1.35</v>
@@ -73965,10 +73989,10 @@
         <v>1.59</v>
       </c>
       <c r="AP351">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ351">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR351">
         <v>1.38</v>
@@ -74093,7 +74117,7 @@
         <v>108</v>
       </c>
       <c r="P352" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q352">
         <v>2.6</v>
@@ -74171,7 +74195,7 @@
         <v>0.76</v>
       </c>
       <c r="AP352">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ352">
         <v>0.78</v>
@@ -74299,7 +74323,7 @@
         <v>303</v>
       </c>
       <c r="P353" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q353">
         <v>3</v>
@@ -74380,7 +74404,7 @@
         <v>1</v>
       </c>
       <c r="AQ353">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR353">
         <v>1.48</v>
@@ -74505,7 +74529,7 @@
         <v>304</v>
       </c>
       <c r="P354" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q354">
         <v>3.65</v>
@@ -74583,10 +74607,10 @@
         <v>1.35</v>
       </c>
       <c r="AP354">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ354">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR354">
         <v>1.23</v>
@@ -74789,7 +74813,7 @@
         <v>1.29</v>
       </c>
       <c r="AP355">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ355">
         <v>1.28</v>
@@ -74995,7 +75019,7 @@
         <v>1.41</v>
       </c>
       <c r="AP356">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AQ356">
         <v>1.33</v>
@@ -75201,10 +75225,10 @@
         <v>2.12</v>
       </c>
       <c r="AP357">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ357">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AR357">
         <v>1.43</v>
@@ -75535,7 +75559,7 @@
         <v>306</v>
       </c>
       <c r="P359" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q359">
         <v>4</v>
@@ -75613,10 +75637,10 @@
         <v>1.35</v>
       </c>
       <c r="AP359">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AQ359">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR359">
         <v>1.24</v>
@@ -75822,7 +75846,7 @@
         <v>1</v>
       </c>
       <c r="AQ360">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR360">
         <v>1.5</v>
@@ -76028,7 +76052,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ361">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR361">
         <v>1.6</v>
@@ -76104,6 +76128,1860 @@
       </c>
       <c r="BP361">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7327255</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>78</v>
+      </c>
+      <c r="H362" t="s">
+        <v>82</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362" t="s">
+        <v>92</v>
+      </c>
+      <c r="P362" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q362">
+        <v>4</v>
+      </c>
+      <c r="R362">
+        <v>2.05</v>
+      </c>
+      <c r="S362">
+        <v>2.88</v>
+      </c>
+      <c r="T362">
+        <v>1.44</v>
+      </c>
+      <c r="U362">
+        <v>2.63</v>
+      </c>
+      <c r="V362">
+        <v>3.25</v>
+      </c>
+      <c r="W362">
+        <v>1.33</v>
+      </c>
+      <c r="X362">
+        <v>10</v>
+      </c>
+      <c r="Y362">
+        <v>1.06</v>
+      </c>
+      <c r="Z362">
+        <v>3.3</v>
+      </c>
+      <c r="AA362">
+        <v>3.2</v>
+      </c>
+      <c r="AB362">
+        <v>2.2</v>
+      </c>
+      <c r="AC362">
+        <v>1.07</v>
+      </c>
+      <c r="AD362">
+        <v>8</v>
+      </c>
+      <c r="AE362">
+        <v>1.36</v>
+      </c>
+      <c r="AF362">
+        <v>2.95</v>
+      </c>
+      <c r="AG362">
+        <v>2.16</v>
+      </c>
+      <c r="AH362">
+        <v>1.66</v>
+      </c>
+      <c r="AI362">
+        <v>1.91</v>
+      </c>
+      <c r="AJ362">
+        <v>1.91</v>
+      </c>
+      <c r="AK362">
+        <v>1.65</v>
+      </c>
+      <c r="AL362">
+        <v>1.28</v>
+      </c>
+      <c r="AM362">
+        <v>1.33</v>
+      </c>
+      <c r="AN362">
+        <v>1.17</v>
+      </c>
+      <c r="AO362">
+        <v>2.06</v>
+      </c>
+      <c r="AP362">
+        <v>1.16</v>
+      </c>
+      <c r="AQ362">
+        <v>2</v>
+      </c>
+      <c r="AR362">
+        <v>1.51</v>
+      </c>
+      <c r="AS362">
+        <v>1.47</v>
+      </c>
+      <c r="AT362">
+        <v>2.98</v>
+      </c>
+      <c r="AU362">
+        <v>3</v>
+      </c>
+      <c r="AV362">
+        <v>5</v>
+      </c>
+      <c r="AW362">
+        <v>5</v>
+      </c>
+      <c r="AX362">
+        <v>6</v>
+      </c>
+      <c r="AY362">
+        <v>11</v>
+      </c>
+      <c r="AZ362">
+        <v>14</v>
+      </c>
+      <c r="BA362">
+        <v>5</v>
+      </c>
+      <c r="BB362">
+        <v>5</v>
+      </c>
+      <c r="BC362">
+        <v>10</v>
+      </c>
+      <c r="BD362">
+        <v>2.1</v>
+      </c>
+      <c r="BE362">
+        <v>8</v>
+      </c>
+      <c r="BF362">
+        <v>1.95</v>
+      </c>
+      <c r="BG362">
+        <v>1.18</v>
+      </c>
+      <c r="BH362">
+        <v>4.5</v>
+      </c>
+      <c r="BI362">
+        <v>1.34</v>
+      </c>
+      <c r="BJ362">
+        <v>3.1</v>
+      </c>
+      <c r="BK362">
+        <v>1.57</v>
+      </c>
+      <c r="BL362">
+        <v>2.3</v>
+      </c>
+      <c r="BM362">
+        <v>2</v>
+      </c>
+      <c r="BN362">
+        <v>1.8</v>
+      </c>
+      <c r="BO362">
+        <v>2.5</v>
+      </c>
+      <c r="BP362">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7327256</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>79</v>
+      </c>
+      <c r="H363" t="s">
+        <v>81</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>2</v>
+      </c>
+      <c r="K363">
+        <v>3</v>
+      </c>
+      <c r="L363">
+        <v>4</v>
+      </c>
+      <c r="M363">
+        <v>5</v>
+      </c>
+      <c r="N363">
+        <v>9</v>
+      </c>
+      <c r="O363" t="s">
+        <v>307</v>
+      </c>
+      <c r="P363" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q363">
+        <v>3.25</v>
+      </c>
+      <c r="R363">
+        <v>2.2</v>
+      </c>
+      <c r="S363">
+        <v>3.25</v>
+      </c>
+      <c r="T363">
+        <v>1.4</v>
+      </c>
+      <c r="U363">
+        <v>2.75</v>
+      </c>
+      <c r="V363">
+        <v>2.75</v>
+      </c>
+      <c r="W363">
+        <v>1.4</v>
+      </c>
+      <c r="X363">
+        <v>8</v>
+      </c>
+      <c r="Y363">
+        <v>1.08</v>
+      </c>
+      <c r="Z363">
+        <v>2.7</v>
+      </c>
+      <c r="AA363">
+        <v>3.3</v>
+      </c>
+      <c r="AB363">
+        <v>2.5</v>
+      </c>
+      <c r="AC363">
+        <v>1.05</v>
+      </c>
+      <c r="AD363">
+        <v>9</v>
+      </c>
+      <c r="AE363">
+        <v>1.28</v>
+      </c>
+      <c r="AF363">
+        <v>3.5</v>
+      </c>
+      <c r="AG363">
+        <v>1.83</v>
+      </c>
+      <c r="AH363">
+        <v>1.93</v>
+      </c>
+      <c r="AI363">
+        <v>1.67</v>
+      </c>
+      <c r="AJ363">
+        <v>2.1</v>
+      </c>
+      <c r="AK363">
+        <v>1.47</v>
+      </c>
+      <c r="AL363">
+        <v>1.25</v>
+      </c>
+      <c r="AM363">
+        <v>1.47</v>
+      </c>
+      <c r="AN363">
+        <v>1.44</v>
+      </c>
+      <c r="AO363">
+        <v>1.06</v>
+      </c>
+      <c r="AP363">
+        <v>1.37</v>
+      </c>
+      <c r="AQ363">
+        <v>1.16</v>
+      </c>
+      <c r="AR363">
+        <v>1.41</v>
+      </c>
+      <c r="AS363">
+        <v>1.56</v>
+      </c>
+      <c r="AT363">
+        <v>2.97</v>
+      </c>
+      <c r="AU363">
+        <v>6</v>
+      </c>
+      <c r="AV363">
+        <v>7</v>
+      </c>
+      <c r="AW363">
+        <v>4</v>
+      </c>
+      <c r="AX363">
+        <v>3</v>
+      </c>
+      <c r="AY363">
+        <v>13</v>
+      </c>
+      <c r="AZ363">
+        <v>17</v>
+      </c>
+      <c r="BA363">
+        <v>6</v>
+      </c>
+      <c r="BB363">
+        <v>6</v>
+      </c>
+      <c r="BC363">
+        <v>12</v>
+      </c>
+      <c r="BD363">
+        <v>1.95</v>
+      </c>
+      <c r="BE363">
+        <v>8</v>
+      </c>
+      <c r="BF363">
+        <v>2.1</v>
+      </c>
+      <c r="BG363">
+        <v>1.3</v>
+      </c>
+      <c r="BH363">
+        <v>3.35</v>
+      </c>
+      <c r="BI363">
+        <v>1.53</v>
+      </c>
+      <c r="BJ363">
+        <v>2.4</v>
+      </c>
+      <c r="BK363">
+        <v>1.88</v>
+      </c>
+      <c r="BL363">
+        <v>1.92</v>
+      </c>
+      <c r="BM363">
+        <v>2.4</v>
+      </c>
+      <c r="BN363">
+        <v>1.53</v>
+      </c>
+      <c r="BO363">
+        <v>3.25</v>
+      </c>
+      <c r="BP363">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7327257</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>75</v>
+      </c>
+      <c r="H364" t="s">
+        <v>83</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364" t="s">
+        <v>308</v>
+      </c>
+      <c r="P364" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q364">
+        <v>2.2</v>
+      </c>
+      <c r="R364">
+        <v>2.3</v>
+      </c>
+      <c r="S364">
+        <v>5</v>
+      </c>
+      <c r="T364">
+        <v>1.33</v>
+      </c>
+      <c r="U364">
+        <v>3.25</v>
+      </c>
+      <c r="V364">
+        <v>2.63</v>
+      </c>
+      <c r="W364">
+        <v>1.44</v>
+      </c>
+      <c r="X364">
+        <v>7</v>
+      </c>
+      <c r="Y364">
+        <v>1.1</v>
+      </c>
+      <c r="Z364">
+        <v>1.6</v>
+      </c>
+      <c r="AA364">
+        <v>4.1</v>
+      </c>
+      <c r="AB364">
+        <v>5</v>
+      </c>
+      <c r="AC364">
+        <v>1.04</v>
+      </c>
+      <c r="AD364">
+        <v>10</v>
+      </c>
+      <c r="AE364">
+        <v>1.22</v>
+      </c>
+      <c r="AF364">
+        <v>4</v>
+      </c>
+      <c r="AG364">
+        <v>1.72</v>
+      </c>
+      <c r="AH364">
+        <v>2.06</v>
+      </c>
+      <c r="AI364">
+        <v>1.8</v>
+      </c>
+      <c r="AJ364">
+        <v>1.95</v>
+      </c>
+      <c r="AK364">
+        <v>1.12</v>
+      </c>
+      <c r="AL364">
+        <v>1.18</v>
+      </c>
+      <c r="AM364">
+        <v>2.25</v>
+      </c>
+      <c r="AN364">
+        <v>1.56</v>
+      </c>
+      <c r="AO364">
+        <v>1.56</v>
+      </c>
+      <c r="AP364">
+        <v>1.63</v>
+      </c>
+      <c r="AQ364">
+        <v>1.47</v>
+      </c>
+      <c r="AR364">
+        <v>1.41</v>
+      </c>
+      <c r="AS364">
+        <v>1.42</v>
+      </c>
+      <c r="AT364">
+        <v>2.83</v>
+      </c>
+      <c r="AU364">
+        <v>6</v>
+      </c>
+      <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>8</v>
+      </c>
+      <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
+        <v>22</v>
+      </c>
+      <c r="AZ364">
+        <v>10</v>
+      </c>
+      <c r="BA364">
+        <v>7</v>
+      </c>
+      <c r="BB364">
+        <v>5</v>
+      </c>
+      <c r="BC364">
+        <v>12</v>
+      </c>
+      <c r="BD364">
+        <v>1.5</v>
+      </c>
+      <c r="BE364">
+        <v>8.5</v>
+      </c>
+      <c r="BF364">
+        <v>3.1</v>
+      </c>
+      <c r="BG364">
+        <v>1.23</v>
+      </c>
+      <c r="BH364">
+        <v>3.9</v>
+      </c>
+      <c r="BI364">
+        <v>1.42</v>
+      </c>
+      <c r="BJ364">
+        <v>2.75</v>
+      </c>
+      <c r="BK364">
+        <v>1.72</v>
+      </c>
+      <c r="BL364">
+        <v>2.05</v>
+      </c>
+      <c r="BM364">
+        <v>2.15</v>
+      </c>
+      <c r="BN364">
+        <v>1.65</v>
+      </c>
+      <c r="BO364">
+        <v>2.8</v>
+      </c>
+      <c r="BP364">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>7327258</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s">
+        <v>80</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>2</v>
+      </c>
+      <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>5</v>
+      </c>
+      <c r="O365" t="s">
+        <v>309</v>
+      </c>
+      <c r="P365" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q365">
+        <v>3</v>
+      </c>
+      <c r="R365">
+        <v>2.38</v>
+      </c>
+      <c r="S365">
+        <v>3.1</v>
+      </c>
+      <c r="T365">
+        <v>1.3</v>
+      </c>
+      <c r="U365">
+        <v>3.4</v>
+      </c>
+      <c r="V365">
+        <v>2.38</v>
+      </c>
+      <c r="W365">
+        <v>1.53</v>
+      </c>
+      <c r="X365">
+        <v>6</v>
+      </c>
+      <c r="Y365">
+        <v>1.13</v>
+      </c>
+      <c r="Z365">
+        <v>2.4</v>
+      </c>
+      <c r="AA365">
+        <v>3.5</v>
+      </c>
+      <c r="AB365">
+        <v>2.7</v>
+      </c>
+      <c r="AC365">
+        <v>1.04</v>
+      </c>
+      <c r="AD365">
+        <v>10</v>
+      </c>
+      <c r="AE365">
+        <v>1.18</v>
+      </c>
+      <c r="AF365">
+        <v>4.5</v>
+      </c>
+      <c r="AG365">
+        <v>1.56</v>
+      </c>
+      <c r="AH365">
+        <v>2.33</v>
+      </c>
+      <c r="AI365">
+        <v>1.5</v>
+      </c>
+      <c r="AJ365">
+        <v>2.5</v>
+      </c>
+      <c r="AK365">
+        <v>1.47</v>
+      </c>
+      <c r="AL365">
+        <v>1.22</v>
+      </c>
+      <c r="AM365">
+        <v>1.53</v>
+      </c>
+      <c r="AN365">
+        <v>1.06</v>
+      </c>
+      <c r="AO365">
+        <v>1.44</v>
+      </c>
+      <c r="AP365">
+        <v>1</v>
+      </c>
+      <c r="AQ365">
+        <v>1.53</v>
+      </c>
+      <c r="AR365">
+        <v>1.5</v>
+      </c>
+      <c r="AS365">
+        <v>1.56</v>
+      </c>
+      <c r="AT365">
+        <v>3.06</v>
+      </c>
+      <c r="AU365">
+        <v>5</v>
+      </c>
+      <c r="AV365">
+        <v>12</v>
+      </c>
+      <c r="AW365">
+        <v>5</v>
+      </c>
+      <c r="AX365">
+        <v>6</v>
+      </c>
+      <c r="AY365">
+        <v>13</v>
+      </c>
+      <c r="AZ365">
+        <v>22</v>
+      </c>
+      <c r="BA365">
+        <v>3</v>
+      </c>
+      <c r="BB365">
+        <v>7</v>
+      </c>
+      <c r="BC365">
+        <v>10</v>
+      </c>
+      <c r="BD365">
+        <v>1.83</v>
+      </c>
+      <c r="BE365">
+        <v>8.5</v>
+      </c>
+      <c r="BF365">
+        <v>2.2</v>
+      </c>
+      <c r="BG365">
+        <v>1.17</v>
+      </c>
+      <c r="BH365">
+        <v>4.65</v>
+      </c>
+      <c r="BI365">
+        <v>1.32</v>
+      </c>
+      <c r="BJ365">
+        <v>3.2</v>
+      </c>
+      <c r="BK365">
+        <v>1.55</v>
+      </c>
+      <c r="BL365">
+        <v>2.35</v>
+      </c>
+      <c r="BM365">
+        <v>1.85</v>
+      </c>
+      <c r="BN365">
+        <v>1.95</v>
+      </c>
+      <c r="BO365">
+        <v>2.4</v>
+      </c>
+      <c r="BP365">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>7327259</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F366">
+        <v>37</v>
+      </c>
+      <c r="G366" t="s">
+        <v>88</v>
+      </c>
+      <c r="H366" t="s">
+        <v>86</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>1</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366" t="s">
+        <v>91</v>
+      </c>
+      <c r="P366" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q366">
+        <v>3.1</v>
+      </c>
+      <c r="R366">
+        <v>2.1</v>
+      </c>
+      <c r="S366">
+        <v>3.4</v>
+      </c>
+      <c r="T366">
+        <v>1.4</v>
+      </c>
+      <c r="U366">
+        <v>2.75</v>
+      </c>
+      <c r="V366">
+        <v>3</v>
+      </c>
+      <c r="W366">
+        <v>1.36</v>
+      </c>
+      <c r="X366">
+        <v>8</v>
+      </c>
+      <c r="Y366">
+        <v>1.08</v>
+      </c>
+      <c r="Z366">
+        <v>2.5</v>
+      </c>
+      <c r="AA366">
+        <v>3.2</v>
+      </c>
+      <c r="AB366">
+        <v>2.8</v>
+      </c>
+      <c r="AC366">
+        <v>1.06</v>
+      </c>
+      <c r="AD366">
+        <v>8.5</v>
+      </c>
+      <c r="AE366">
+        <v>1.3</v>
+      </c>
+      <c r="AF366">
+        <v>3.3</v>
+      </c>
+      <c r="AG366">
+        <v>1.93</v>
+      </c>
+      <c r="AH366">
+        <v>1.82</v>
+      </c>
+      <c r="AI366">
+        <v>1.7</v>
+      </c>
+      <c r="AJ366">
+        <v>2.05</v>
+      </c>
+      <c r="AK366">
+        <v>1.42</v>
+      </c>
+      <c r="AL366">
+        <v>1.25</v>
+      </c>
+      <c r="AM366">
+        <v>1.53</v>
+      </c>
+      <c r="AN366">
+        <v>1</v>
+      </c>
+      <c r="AO366">
+        <v>1.44</v>
+      </c>
+      <c r="AP366">
+        <v>0.95</v>
+      </c>
+      <c r="AQ366">
+        <v>1.53</v>
+      </c>
+      <c r="AR366">
+        <v>1.41</v>
+      </c>
+      <c r="AS366">
+        <v>1.24</v>
+      </c>
+      <c r="AT366">
+        <v>2.65</v>
+      </c>
+      <c r="AU366">
+        <v>4</v>
+      </c>
+      <c r="AV366">
+        <v>5</v>
+      </c>
+      <c r="AW366">
+        <v>4</v>
+      </c>
+      <c r="AX366">
+        <v>4</v>
+      </c>
+      <c r="AY366">
+        <v>10</v>
+      </c>
+      <c r="AZ366">
+        <v>10</v>
+      </c>
+      <c r="BA366">
+        <v>10</v>
+      </c>
+      <c r="BB366">
+        <v>4</v>
+      </c>
+      <c r="BC366">
+        <v>14</v>
+      </c>
+      <c r="BD366">
+        <v>1.73</v>
+      </c>
+      <c r="BE366">
+        <v>8</v>
+      </c>
+      <c r="BF366">
+        <v>2.4</v>
+      </c>
+      <c r="BG366">
+        <v>1.3</v>
+      </c>
+      <c r="BH366">
+        <v>3.35</v>
+      </c>
+      <c r="BI366">
+        <v>1.53</v>
+      </c>
+      <c r="BJ366">
+        <v>2.4</v>
+      </c>
+      <c r="BK366">
+        <v>1.95</v>
+      </c>
+      <c r="BL366">
+        <v>1.85</v>
+      </c>
+      <c r="BM366">
+        <v>2.4</v>
+      </c>
+      <c r="BN366">
+        <v>1.53</v>
+      </c>
+      <c r="BO366">
+        <v>3.25</v>
+      </c>
+      <c r="BP366">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>7327260</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>72</v>
+      </c>
+      <c r="H367" t="s">
+        <v>85</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>2</v>
+      </c>
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367">
+        <v>3</v>
+      </c>
+      <c r="O367" t="s">
+        <v>310</v>
+      </c>
+      <c r="P367" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q367">
+        <v>3.1</v>
+      </c>
+      <c r="R367">
+        <v>2.2</v>
+      </c>
+      <c r="S367">
+        <v>3.25</v>
+      </c>
+      <c r="T367">
+        <v>1.36</v>
+      </c>
+      <c r="U367">
+        <v>3</v>
+      </c>
+      <c r="V367">
+        <v>2.63</v>
+      </c>
+      <c r="W367">
+        <v>1.44</v>
+      </c>
+      <c r="X367">
+        <v>7</v>
+      </c>
+      <c r="Y367">
+        <v>1.1</v>
+      </c>
+      <c r="Z367">
+        <v>2.5</v>
+      </c>
+      <c r="AA367">
+        <v>3.4</v>
+      </c>
+      <c r="AB367">
+        <v>2.65</v>
+      </c>
+      <c r="AC367">
+        <v>1.05</v>
+      </c>
+      <c r="AD367">
+        <v>9</v>
+      </c>
+      <c r="AE367">
+        <v>1.25</v>
+      </c>
+      <c r="AF367">
+        <v>3.75</v>
+      </c>
+      <c r="AG367">
+        <v>1.78</v>
+      </c>
+      <c r="AH367">
+        <v>1.98</v>
+      </c>
+      <c r="AI367">
+        <v>1.62</v>
+      </c>
+      <c r="AJ367">
+        <v>2.2</v>
+      </c>
+      <c r="AK367">
+        <v>1.47</v>
+      </c>
+      <c r="AL367">
+        <v>1.25</v>
+      </c>
+      <c r="AM367">
+        <v>1.5</v>
+      </c>
+      <c r="AN367">
+        <v>1.06</v>
+      </c>
+      <c r="AO367">
+        <v>1.5</v>
+      </c>
+      <c r="AP367">
+        <v>1.16</v>
+      </c>
+      <c r="AQ367">
+        <v>1.42</v>
+      </c>
+      <c r="AR367">
+        <v>1.28</v>
+      </c>
+      <c r="AS367">
+        <v>1.17</v>
+      </c>
+      <c r="AT367">
+        <v>2.45</v>
+      </c>
+      <c r="AU367">
+        <v>3</v>
+      </c>
+      <c r="AV367">
+        <v>2</v>
+      </c>
+      <c r="AW367">
+        <v>9</v>
+      </c>
+      <c r="AX367">
+        <v>4</v>
+      </c>
+      <c r="AY367">
+        <v>17</v>
+      </c>
+      <c r="AZ367">
+        <v>11</v>
+      </c>
+      <c r="BA367">
+        <v>4</v>
+      </c>
+      <c r="BB367">
+        <v>8</v>
+      </c>
+      <c r="BC367">
+        <v>12</v>
+      </c>
+      <c r="BD367">
+        <v>1.95</v>
+      </c>
+      <c r="BE367">
+        <v>8</v>
+      </c>
+      <c r="BF367">
+        <v>2.1</v>
+      </c>
+      <c r="BG367">
+        <v>1.26</v>
+      </c>
+      <c r="BH367">
+        <v>3.6</v>
+      </c>
+      <c r="BI367">
+        <v>1.46</v>
+      </c>
+      <c r="BJ367">
+        <v>2.6</v>
+      </c>
+      <c r="BK367">
+        <v>1.75</v>
+      </c>
+      <c r="BL367">
+        <v>2</v>
+      </c>
+      <c r="BM367">
+        <v>2.25</v>
+      </c>
+      <c r="BN367">
+        <v>1.6</v>
+      </c>
+      <c r="BO367">
+        <v>2.95</v>
+      </c>
+      <c r="BP367">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:68">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>7327261</v>
+      </c>
+      <c r="C368" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F368">
+        <v>37</v>
+      </c>
+      <c r="G368" t="s">
+        <v>71</v>
+      </c>
+      <c r="H368" t="s">
+        <v>74</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>2</v>
+      </c>
+      <c r="K368">
+        <v>2</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+      <c r="M368">
+        <v>3</v>
+      </c>
+      <c r="N368">
+        <v>3</v>
+      </c>
+      <c r="O368" t="s">
+        <v>91</v>
+      </c>
+      <c r="P368" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q368">
+        <v>2.3</v>
+      </c>
+      <c r="R368">
+        <v>2.2</v>
+      </c>
+      <c r="S368">
+        <v>5.5</v>
+      </c>
+      <c r="T368">
+        <v>1.4</v>
+      </c>
+      <c r="U368">
+        <v>2.75</v>
+      </c>
+      <c r="V368">
+        <v>3</v>
+      </c>
+      <c r="W368">
+        <v>1.36</v>
+      </c>
+      <c r="X368">
+        <v>8</v>
+      </c>
+      <c r="Y368">
+        <v>1.08</v>
+      </c>
+      <c r="Z368">
+        <v>1.65</v>
+      </c>
+      <c r="AA368">
+        <v>3.75</v>
+      </c>
+      <c r="AB368">
+        <v>5</v>
+      </c>
+      <c r="AC368">
+        <v>1.06</v>
+      </c>
+      <c r="AD368">
+        <v>8.5</v>
+      </c>
+      <c r="AE368">
+        <v>1.3</v>
+      </c>
+      <c r="AF368">
+        <v>3.3</v>
+      </c>
+      <c r="AG368">
+        <v>1.98</v>
+      </c>
+      <c r="AH368">
+        <v>1.78</v>
+      </c>
+      <c r="AI368">
+        <v>1.95</v>
+      </c>
+      <c r="AJ368">
+        <v>1.8</v>
+      </c>
+      <c r="AK368">
+        <v>1.12</v>
+      </c>
+      <c r="AL368">
+        <v>1.2</v>
+      </c>
+      <c r="AM368">
+        <v>2.15</v>
+      </c>
+      <c r="AN368">
+        <v>1.5</v>
+      </c>
+      <c r="AO368">
+        <v>0.61</v>
+      </c>
+      <c r="AP368">
+        <v>1.42</v>
+      </c>
+      <c r="AQ368">
+        <v>0.74</v>
+      </c>
+      <c r="AR368">
+        <v>1.1</v>
+      </c>
+      <c r="AS368">
+        <v>1.26</v>
+      </c>
+      <c r="AT368">
+        <v>2.36</v>
+      </c>
+      <c r="AU368">
+        <v>5</v>
+      </c>
+      <c r="AV368">
+        <v>6</v>
+      </c>
+      <c r="AW368">
+        <v>9</v>
+      </c>
+      <c r="AX368">
+        <v>1</v>
+      </c>
+      <c r="AY368">
+        <v>20</v>
+      </c>
+      <c r="AZ368">
+        <v>9</v>
+      </c>
+      <c r="BA368">
+        <v>6</v>
+      </c>
+      <c r="BB368">
+        <v>2</v>
+      </c>
+      <c r="BC368">
+        <v>8</v>
+      </c>
+      <c r="BD368">
+        <v>1.62</v>
+      </c>
+      <c r="BE368">
+        <v>8.5</v>
+      </c>
+      <c r="BF368">
+        <v>2.62</v>
+      </c>
+      <c r="BG368">
+        <v>1.26</v>
+      </c>
+      <c r="BH368">
+        <v>3.6</v>
+      </c>
+      <c r="BI368">
+        <v>1.46</v>
+      </c>
+      <c r="BJ368">
+        <v>2.6</v>
+      </c>
+      <c r="BK368">
+        <v>1.75</v>
+      </c>
+      <c r="BL368">
+        <v>2</v>
+      </c>
+      <c r="BM368">
+        <v>2.25</v>
+      </c>
+      <c r="BN368">
+        <v>1.6</v>
+      </c>
+      <c r="BO368">
+        <v>2.95</v>
+      </c>
+      <c r="BP368">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>7327262</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>77</v>
+      </c>
+      <c r="H369" t="s">
+        <v>84</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>2</v>
+      </c>
+      <c r="K369">
+        <v>2</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>2</v>
+      </c>
+      <c r="O369" t="s">
+        <v>91</v>
+      </c>
+      <c r="P369" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q369">
+        <v>3.5</v>
+      </c>
+      <c r="R369">
+        <v>2.1</v>
+      </c>
+      <c r="S369">
+        <v>3</v>
+      </c>
+      <c r="T369">
+        <v>1.4</v>
+      </c>
+      <c r="U369">
+        <v>2.75</v>
+      </c>
+      <c r="V369">
+        <v>3</v>
+      </c>
+      <c r="W369">
+        <v>1.36</v>
+      </c>
+      <c r="X369">
+        <v>8</v>
+      </c>
+      <c r="Y369">
+        <v>1.08</v>
+      </c>
+      <c r="Z369">
+        <v>3</v>
+      </c>
+      <c r="AA369">
+        <v>3.3</v>
+      </c>
+      <c r="AB369">
+        <v>2.3</v>
+      </c>
+      <c r="AC369">
+        <v>1.06</v>
+      </c>
+      <c r="AD369">
+        <v>8.5</v>
+      </c>
+      <c r="AE369">
+        <v>1.3</v>
+      </c>
+      <c r="AF369">
+        <v>3.3</v>
+      </c>
+      <c r="AG369">
+        <v>1.93</v>
+      </c>
+      <c r="AH369">
+        <v>1.83</v>
+      </c>
+      <c r="AI369">
+        <v>1.7</v>
+      </c>
+      <c r="AJ369">
+        <v>2.05</v>
+      </c>
+      <c r="AK369">
+        <v>1.57</v>
+      </c>
+      <c r="AL369">
+        <v>1.25</v>
+      </c>
+      <c r="AM369">
+        <v>1.38</v>
+      </c>
+      <c r="AN369">
+        <v>1.67</v>
+      </c>
+      <c r="AO369">
+        <v>1.28</v>
+      </c>
+      <c r="AP369">
+        <v>1.58</v>
+      </c>
+      <c r="AQ369">
+        <v>1.37</v>
+      </c>
+      <c r="AR369">
+        <v>1.46</v>
+      </c>
+      <c r="AS369">
+        <v>1.39</v>
+      </c>
+      <c r="AT369">
+        <v>2.85</v>
+      </c>
+      <c r="AU369">
+        <v>6</v>
+      </c>
+      <c r="AV369">
+        <v>5</v>
+      </c>
+      <c r="AW369">
+        <v>9</v>
+      </c>
+      <c r="AX369">
+        <v>2</v>
+      </c>
+      <c r="AY369">
+        <v>20</v>
+      </c>
+      <c r="AZ369">
+        <v>10</v>
+      </c>
+      <c r="BA369">
+        <v>5</v>
+      </c>
+      <c r="BB369">
+        <v>3</v>
+      </c>
+      <c r="BC369">
+        <v>8</v>
+      </c>
+      <c r="BD369">
+        <v>1.91</v>
+      </c>
+      <c r="BE369">
+        <v>8</v>
+      </c>
+      <c r="BF369">
+        <v>2.1</v>
+      </c>
+      <c r="BG369">
+        <v>1.26</v>
+      </c>
+      <c r="BH369">
+        <v>3.6</v>
+      </c>
+      <c r="BI369">
+        <v>1.46</v>
+      </c>
+      <c r="BJ369">
+        <v>2.6</v>
+      </c>
+      <c r="BK369">
+        <v>1.75</v>
+      </c>
+      <c r="BL369">
+        <v>2</v>
+      </c>
+      <c r="BM369">
+        <v>2.25</v>
+      </c>
+      <c r="BN369">
+        <v>1.6</v>
+      </c>
+      <c r="BO369">
+        <v>2.95</v>
+      </c>
+      <c r="BP369">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>7327264</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45626.08333333334</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>73</v>
+      </c>
+      <c r="H370" t="s">
+        <v>87</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>157</v>
+      </c>
+      <c r="P370" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q370">
+        <v>3.75</v>
+      </c>
+      <c r="R370">
+        <v>1.91</v>
+      </c>
+      <c r="S370">
+        <v>3.6</v>
+      </c>
+      <c r="T370">
+        <v>1.62</v>
+      </c>
+      <c r="U370">
+        <v>2.2</v>
+      </c>
+      <c r="V370">
+        <v>4</v>
+      </c>
+      <c r="W370">
+        <v>1.22</v>
+      </c>
+      <c r="X370">
+        <v>13</v>
+      </c>
+      <c r="Y370">
+        <v>1.04</v>
+      </c>
+      <c r="Z370">
+        <v>2.9</v>
+      </c>
+      <c r="AA370">
+        <v>2.8</v>
+      </c>
+      <c r="AB370">
+        <v>2.7</v>
+      </c>
+      <c r="AC370">
+        <v>1.12</v>
+      </c>
+      <c r="AD370">
+        <v>6</v>
+      </c>
+      <c r="AE370">
+        <v>1.52</v>
+      </c>
+      <c r="AF370">
+        <v>2.45</v>
+      </c>
+      <c r="AG370">
+        <v>2.55</v>
+      </c>
+      <c r="AH370">
+        <v>1.45</v>
+      </c>
+      <c r="AI370">
+        <v>2.2</v>
+      </c>
+      <c r="AJ370">
+        <v>1.62</v>
+      </c>
+      <c r="AK370">
+        <v>1.47</v>
+      </c>
+      <c r="AL370">
+        <v>1.33</v>
+      </c>
+      <c r="AM370">
+        <v>1.4</v>
+      </c>
+      <c r="AN370">
+        <v>1.28</v>
+      </c>
+      <c r="AO370">
+        <v>1.06</v>
+      </c>
+      <c r="AP370">
+        <v>1.37</v>
+      </c>
+      <c r="AQ370">
+        <v>1</v>
+      </c>
+      <c r="AR370">
+        <v>1.25</v>
+      </c>
+      <c r="AS370">
+        <v>1.25</v>
+      </c>
+      <c r="AT370">
+        <v>2.5</v>
+      </c>
+      <c r="AU370">
+        <v>6</v>
+      </c>
+      <c r="AV370">
+        <v>5</v>
+      </c>
+      <c r="AW370">
+        <v>6</v>
+      </c>
+      <c r="AX370">
+        <v>7</v>
+      </c>
+      <c r="AY370">
+        <v>14</v>
+      </c>
+      <c r="AZ370">
+        <v>15</v>
+      </c>
+      <c r="BA370">
+        <v>4</v>
+      </c>
+      <c r="BB370">
+        <v>1</v>
+      </c>
+      <c r="BC370">
+        <v>5</v>
+      </c>
+      <c r="BD370">
+        <v>2.1</v>
+      </c>
+      <c r="BE370">
+        <v>7.5</v>
+      </c>
+      <c r="BF370">
+        <v>1.95</v>
+      </c>
+      <c r="BG370">
+        <v>1.32</v>
+      </c>
+      <c r="BH370">
+        <v>3.2</v>
+      </c>
+      <c r="BI370">
+        <v>1.57</v>
+      </c>
+      <c r="BJ370">
+        <v>2.3</v>
+      </c>
+      <c r="BK370">
+        <v>2</v>
+      </c>
+      <c r="BL370">
+        <v>1.8</v>
+      </c>
+      <c r="BM370">
+        <v>2.5</v>
+      </c>
+      <c r="BN370">
+        <v>1.5</v>
+      </c>
+      <c r="BO370">
+        <v>3.4</v>
+      </c>
+      <c r="BP370">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="462">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,6 +949,9 @@
     <t>['80', '89']</t>
   </si>
   <si>
+    <t>['8', '45+2', '55', '79', '87']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1384,6 +1387,9 @@
     <t>['45+4', '47', '64', '71']</t>
   </si>
   <si>
+    <t>['10', '14']</t>
+  </si>
+  <si>
     <t>['16', '22', '58', '65', '90+4']</t>
   </si>
   <si>
@@ -1394,9 +1400,6 @@
   </si>
   <si>
     <t>['8', '10', '66']</t>
-  </si>
-  <si>
-    <t>['10', '14']</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP370"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2095,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2223,7 +2226,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2429,7 +2432,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2716,7 +2719,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ5">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2841,7 +2844,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -3253,7 +3256,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3459,7 +3462,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3871,7 +3874,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -4077,7 +4080,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4283,7 +4286,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4489,7 +4492,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4901,7 +4904,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5188,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -5313,7 +5316,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5519,7 +5522,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -6137,7 +6140,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6833,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ25">
         <v>0.74</v>
@@ -7167,7 +7170,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7991,7 +7994,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -8197,7 +8200,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8609,7 +8612,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -9021,7 +9024,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9227,7 +9230,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9433,7 +9436,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9845,7 +9848,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -10051,7 +10054,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10257,7 +10260,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10335,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ42">
         <v>1.53</v>
@@ -10750,7 +10753,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ44">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -11081,7 +11084,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -12729,7 +12732,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -13141,7 +13144,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13759,7 +13762,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13965,7 +13968,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14583,7 +14586,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14789,7 +14792,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14995,7 +14998,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15279,7 +15282,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -15407,7 +15410,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16643,7 +16646,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16849,7 +16852,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16930,7 +16933,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -17673,7 +17676,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -18085,7 +18088,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18291,7 +18294,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18703,7 +18706,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18909,7 +18912,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19939,7 +19942,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -20351,7 +20354,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20969,7 +20972,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21175,7 +21178,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21587,7 +21590,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21665,7 +21668,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ97">
         <v>1.16</v>
@@ -22205,7 +22208,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22617,7 +22620,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -23522,7 +23525,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ106">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23647,7 +23650,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -24059,7 +24062,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -24265,7 +24268,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24471,7 +24474,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24677,7 +24680,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -25295,7 +25298,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25707,7 +25710,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25785,7 +25788,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ117">
         <v>1.11</v>
@@ -25913,7 +25916,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -26325,7 +26328,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26531,7 +26534,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26737,7 +26740,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26943,7 +26946,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27436,7 +27439,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27767,7 +27770,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27973,7 +27976,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -28179,7 +28182,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28385,7 +28388,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28463,7 +28466,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ130">
         <v>1.37</v>
@@ -29621,7 +29624,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29827,7 +29830,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30445,7 +30448,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30651,7 +30654,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -31063,7 +31066,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -31269,7 +31272,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -32093,7 +32096,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32174,7 +32177,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ148">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32505,7 +32508,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32711,7 +32714,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32917,7 +32920,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -33123,7 +33126,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33741,7 +33744,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34565,7 +34568,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34849,7 +34852,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ161">
         <v>0.89</v>
@@ -34977,7 +34980,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -35183,7 +35186,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35389,7 +35392,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -36007,7 +36010,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36088,7 +36091,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ167">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -36419,7 +36422,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36625,7 +36628,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36831,7 +36834,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36909,7 +36912,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ171">
         <v>1.61</v>
@@ -37324,7 +37327,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -38685,7 +38688,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -39303,7 +39306,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39509,7 +39512,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39715,7 +39718,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -40127,7 +40130,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40951,7 +40954,7 @@
         <v>212</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>3.3</v>
@@ -41444,7 +41447,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -42187,7 +42190,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42805,7 +42808,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q200">
         <v>2.1</v>
@@ -42883,7 +42886,7 @@
         <v>1.22</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ200">
         <v>1.28</v>
@@ -43217,7 +43220,7 @@
         <v>217</v>
       </c>
       <c r="P202" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q202">
         <v>2.07</v>
@@ -43629,7 +43632,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43835,7 +43838,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44453,7 +44456,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44659,7 +44662,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -45277,7 +45280,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45355,7 +45358,7 @@
         <v>2</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ212">
         <v>2</v>
@@ -45564,7 +45567,7 @@
         <v>2</v>
       </c>
       <c r="AQ213">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR213">
         <v>1.31</v>
@@ -45895,7 +45898,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46101,7 +46104,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46307,7 +46310,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46719,7 +46722,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q219">
         <v>2.35</v>
@@ -46925,7 +46928,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -47131,7 +47134,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -48239,7 +48242,7 @@
         <v>1.8</v>
       </c>
       <c r="AP226">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ226">
         <v>1.33</v>
@@ -48985,7 +48988,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -49191,7 +49194,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49397,7 +49400,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49603,7 +49606,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -50015,7 +50018,7 @@
         <v>238</v>
       </c>
       <c r="P235" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q235">
         <v>2.25</v>
@@ -50427,7 +50430,7 @@
         <v>240</v>
       </c>
       <c r="P237" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -50633,7 +50636,7 @@
         <v>158</v>
       </c>
       <c r="P238" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50839,7 +50842,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50920,7 +50923,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ239">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -51045,7 +51048,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q240">
         <v>2.63</v>
@@ -51251,7 +51254,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51869,7 +51872,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -52075,7 +52078,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -53105,7 +53108,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53186,7 +53189,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ250">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR250">
         <v>1.75</v>
@@ -53311,7 +53314,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53801,7 +53804,7 @@
         <v>1.25</v>
       </c>
       <c r="AP253">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ253">
         <v>1.22</v>
@@ -54135,7 +54138,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54959,7 +54962,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -55371,7 +55374,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -56195,7 +56198,7 @@
         <v>103</v>
       </c>
       <c r="P265" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q265">
         <v>2.5</v>
@@ -56401,7 +56404,7 @@
         <v>255</v>
       </c>
       <c r="P266" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q266">
         <v>3.32</v>
@@ -56607,7 +56610,7 @@
         <v>104</v>
       </c>
       <c r="P267" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q267">
         <v>4.5</v>
@@ -56813,7 +56816,7 @@
         <v>256</v>
       </c>
       <c r="P268" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q268">
         <v>2.6</v>
@@ -57019,7 +57022,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -57431,7 +57434,7 @@
         <v>258</v>
       </c>
       <c r="P271" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q271">
         <v>2.86</v>
@@ -58539,7 +58542,7 @@
         <v>1.31</v>
       </c>
       <c r="AP276">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ276">
         <v>1.06</v>
@@ -59079,7 +59082,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59160,7 +59163,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ279">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR279">
         <v>1.25</v>
@@ -59285,7 +59288,7 @@
         <v>264</v>
       </c>
       <c r="P280" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q280">
         <v>2.75</v>
@@ -59491,7 +59494,7 @@
         <v>265</v>
       </c>
       <c r="P281" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q281">
         <v>1.95</v>
@@ -59569,7 +59572,7 @@
         <v>1.38</v>
       </c>
       <c r="AP281">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ281">
         <v>1.42</v>
@@ -59697,7 +59700,7 @@
         <v>266</v>
       </c>
       <c r="P282" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q282">
         <v>2.6</v>
@@ -59903,7 +59906,7 @@
         <v>111</v>
       </c>
       <c r="P283" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q283">
         <v>3.45</v>
@@ -60315,7 +60318,7 @@
         <v>91</v>
       </c>
       <c r="P285" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q285">
         <v>4.75</v>
@@ -60521,7 +60524,7 @@
         <v>268</v>
       </c>
       <c r="P286" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q286">
         <v>2.1</v>
@@ -60727,7 +60730,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q287">
         <v>1.91</v>
@@ -60933,7 +60936,7 @@
         <v>270</v>
       </c>
       <c r="P288" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q288">
         <v>2.25</v>
@@ -61139,7 +61142,7 @@
         <v>91</v>
       </c>
       <c r="P289" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61345,7 +61348,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q290">
         <v>4.5</v>
@@ -61551,7 +61554,7 @@
         <v>271</v>
       </c>
       <c r="P291" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q291">
         <v>3.75</v>
@@ -62169,7 +62172,7 @@
         <v>91</v>
       </c>
       <c r="P294" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q294">
         <v>2.25</v>
@@ -63199,7 +63202,7 @@
         <v>91</v>
       </c>
       <c r="P299" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q299">
         <v>2.4</v>
@@ -63486,7 +63489,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ300">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR300">
         <v>1.41</v>
@@ -63817,7 +63820,7 @@
         <v>276</v>
       </c>
       <c r="P302" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q302">
         <v>4</v>
@@ -64229,7 +64232,7 @@
         <v>278</v>
       </c>
       <c r="P304" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q304">
         <v>2.08</v>
@@ -64307,7 +64310,7 @@
         <v>1.43</v>
       </c>
       <c r="AP304">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ304">
         <v>1.53</v>
@@ -64435,7 +64438,7 @@
         <v>279</v>
       </c>
       <c r="P305" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q305">
         <v>3.35</v>
@@ -64641,7 +64644,7 @@
         <v>280</v>
       </c>
       <c r="P306" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q306">
         <v>2.8</v>
@@ -64847,7 +64850,7 @@
         <v>281</v>
       </c>
       <c r="P307" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q307">
         <v>2.63</v>
@@ -65465,7 +65468,7 @@
         <v>284</v>
       </c>
       <c r="P310" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q310">
         <v>2.4</v>
@@ -66161,7 +66164,7 @@
         <v>2.27</v>
       </c>
       <c r="AP313">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ313">
         <v>1.94</v>
@@ -66701,7 +66704,7 @@
         <v>288</v>
       </c>
       <c r="P316" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q316">
         <v>3.4</v>
@@ -67319,7 +67322,7 @@
         <v>91</v>
       </c>
       <c r="P319" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q319">
         <v>3.2</v>
@@ -67731,7 +67734,7 @@
         <v>105</v>
       </c>
       <c r="P321" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q321">
         <v>2.64</v>
@@ -68430,7 +68433,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ324">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR324">
         <v>1.57</v>
@@ -68555,7 +68558,7 @@
         <v>291</v>
       </c>
       <c r="P325" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q325">
         <v>4.33</v>
@@ -68761,7 +68764,7 @@
         <v>91</v>
       </c>
       <c r="P326" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q326">
         <v>3</v>
@@ -68967,7 +68970,7 @@
         <v>127</v>
       </c>
       <c r="P327" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q327">
         <v>5.5</v>
@@ -69379,7 +69382,7 @@
         <v>91</v>
       </c>
       <c r="P329" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q329">
         <v>2.05</v>
@@ -69997,7 +70000,7 @@
         <v>292</v>
       </c>
       <c r="P332" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q332">
         <v>3.4</v>
@@ -70203,7 +70206,7 @@
         <v>91</v>
       </c>
       <c r="P333" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q333">
         <v>2.75</v>
@@ -70284,7 +70287,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ333">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR333">
         <v>1.07</v>
@@ -70821,7 +70824,7 @@
         <v>104</v>
       </c>
       <c r="P336" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q336">
         <v>2.5</v>
@@ -71233,7 +71236,7 @@
         <v>296</v>
       </c>
       <c r="P338" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q338">
         <v>2.95</v>
@@ -71439,7 +71442,7 @@
         <v>91</v>
       </c>
       <c r="P339" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q339">
         <v>2.9</v>
@@ -72057,7 +72060,7 @@
         <v>297</v>
       </c>
       <c r="P342" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q342">
         <v>2.88</v>
@@ -72753,7 +72756,7 @@
         <v>1.47</v>
       </c>
       <c r="AP345">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ345">
         <v>1.47</v>
@@ -72881,7 +72884,7 @@
         <v>91</v>
       </c>
       <c r="P346" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q346">
         <v>3.1</v>
@@ -73499,7 +73502,7 @@
         <v>301</v>
       </c>
       <c r="P349" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q349">
         <v>3.4</v>
@@ -74117,7 +74120,7 @@
         <v>108</v>
       </c>
       <c r="P352" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q352">
         <v>2.6</v>
@@ -74198,7 +74201,7 @@
         <v>1</v>
       </c>
       <c r="AQ352">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR352">
         <v>1.51</v>
@@ -74323,7 +74326,7 @@
         <v>303</v>
       </c>
       <c r="P353" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q353">
         <v>3</v>
@@ -74529,7 +74532,7 @@
         <v>304</v>
       </c>
       <c r="P354" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q354">
         <v>3.65</v>
@@ -75559,7 +75562,7 @@
         <v>306</v>
       </c>
       <c r="P359" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q359">
         <v>4</v>
@@ -76135,7 +76138,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>7327255</v>
+        <v>7327262</v>
       </c>
       <c r="C362" t="s">
         <v>68</v>
@@ -76144,196 +76147,196 @@
         <v>69</v>
       </c>
       <c r="E362" s="2">
-        <v>45626.08333333334</v>
+        <v>45625.875</v>
       </c>
       <c r="F362">
         <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H362" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N362">
         <v>2</v>
       </c>
       <c r="O362" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P362" t="s">
-        <v>239</v>
+        <v>457</v>
       </c>
       <c r="Q362">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R362">
+        <v>2.1</v>
+      </c>
+      <c r="S362">
+        <v>3</v>
+      </c>
+      <c r="T362">
+        <v>1.4</v>
+      </c>
+      <c r="U362">
+        <v>2.75</v>
+      </c>
+      <c r="V362">
+        <v>3</v>
+      </c>
+      <c r="W362">
+        <v>1.36</v>
+      </c>
+      <c r="X362">
+        <v>8</v>
+      </c>
+      <c r="Y362">
+        <v>1.08</v>
+      </c>
+      <c r="Z362">
+        <v>3</v>
+      </c>
+      <c r="AA362">
+        <v>3.3</v>
+      </c>
+      <c r="AB362">
+        <v>2.3</v>
+      </c>
+      <c r="AC362">
+        <v>1.06</v>
+      </c>
+      <c r="AD362">
+        <v>8.5</v>
+      </c>
+      <c r="AE362">
+        <v>1.3</v>
+      </c>
+      <c r="AF362">
+        <v>3.3</v>
+      </c>
+      <c r="AG362">
+        <v>1.93</v>
+      </c>
+      <c r="AH362">
+        <v>1.83</v>
+      </c>
+      <c r="AI362">
+        <v>1.7</v>
+      </c>
+      <c r="AJ362">
         <v>2.05</v>
       </c>
-      <c r="S362">
-        <v>2.88</v>
-      </c>
-      <c r="T362">
-        <v>1.44</v>
-      </c>
-      <c r="U362">
-        <v>2.63</v>
-      </c>
-      <c r="V362">
-        <v>3.25</v>
-      </c>
-      <c r="W362">
-        <v>1.33</v>
-      </c>
-      <c r="X362">
-        <v>10</v>
-      </c>
-      <c r="Y362">
-        <v>1.06</v>
-      </c>
-      <c r="Z362">
-        <v>3.3</v>
-      </c>
-      <c r="AA362">
-        <v>3.2</v>
-      </c>
-      <c r="AB362">
-        <v>2.2</v>
-      </c>
-      <c r="AC362">
-        <v>1.07</v>
-      </c>
-      <c r="AD362">
-        <v>8</v>
-      </c>
-      <c r="AE362">
-        <v>1.36</v>
-      </c>
-      <c r="AF362">
-        <v>2.95</v>
-      </c>
-      <c r="AG362">
-        <v>2.16</v>
-      </c>
-      <c r="AH362">
-        <v>1.66</v>
-      </c>
-      <c r="AI362">
-        <v>1.91</v>
-      </c>
-      <c r="AJ362">
-        <v>1.91</v>
-      </c>
       <c r="AK362">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AL362">
+        <v>1.25</v>
+      </c>
+      <c r="AM362">
+        <v>1.38</v>
+      </c>
+      <c r="AN362">
+        <v>1.67</v>
+      </c>
+      <c r="AO362">
         <v>1.28</v>
       </c>
-      <c r="AM362">
-        <v>1.33</v>
-      </c>
-      <c r="AN362">
-        <v>1.17</v>
-      </c>
-      <c r="AO362">
-        <v>2.06</v>
-      </c>
       <c r="AP362">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="AQ362">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AR362">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS362">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT362">
-        <v>2.98</v>
+        <v>2.85</v>
       </c>
       <c r="AU362">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV362">
         <v>5</v>
       </c>
       <c r="AW362">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX362">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY362">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ362">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA362">
         <v>5</v>
       </c>
       <c r="BB362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC362">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD362">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BE362">
         <v>8</v>
       </c>
       <c r="BF362">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BG362">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="BH362">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="BI362">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="BJ362">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="BK362">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="BL362">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BM362">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BN362">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BO362">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BP362">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="363" spans="1:68">
@@ -76341,7 +76344,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>7327256</v>
+        <v>7327255</v>
       </c>
       <c r="C363" t="s">
         <v>68</v>
@@ -76356,190 +76359,190 @@
         <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H363" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I363">
         <v>1</v>
       </c>
       <c r="J363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363" t="s">
+        <v>92</v>
+      </c>
+      <c r="P363" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q363">
+        <v>4</v>
+      </c>
+      <c r="R363">
+        <v>2.05</v>
+      </c>
+      <c r="S363">
+        <v>2.88</v>
+      </c>
+      <c r="T363">
+        <v>1.44</v>
+      </c>
+      <c r="U363">
+        <v>2.63</v>
+      </c>
+      <c r="V363">
+        <v>3.25</v>
+      </c>
+      <c r="W363">
+        <v>1.33</v>
+      </c>
+      <c r="X363">
+        <v>10</v>
+      </c>
+      <c r="Y363">
+        <v>1.06</v>
+      </c>
+      <c r="Z363">
+        <v>3.3</v>
+      </c>
+      <c r="AA363">
+        <v>3.2</v>
+      </c>
+      <c r="AB363">
+        <v>2.2</v>
+      </c>
+      <c r="AC363">
+        <v>1.07</v>
+      </c>
+      <c r="AD363">
+        <v>8</v>
+      </c>
+      <c r="AE363">
+        <v>1.36</v>
+      </c>
+      <c r="AF363">
+        <v>2.95</v>
+      </c>
+      <c r="AG363">
+        <v>2.16</v>
+      </c>
+      <c r="AH363">
+        <v>1.66</v>
+      </c>
+      <c r="AI363">
+        <v>1.91</v>
+      </c>
+      <c r="AJ363">
+        <v>1.91</v>
+      </c>
+      <c r="AK363">
+        <v>1.65</v>
+      </c>
+      <c r="AL363">
+        <v>1.28</v>
+      </c>
+      <c r="AM363">
+        <v>1.33</v>
+      </c>
+      <c r="AN363">
+        <v>1.17</v>
+      </c>
+      <c r="AO363">
+        <v>2.06</v>
+      </c>
+      <c r="AP363">
+        <v>1.16</v>
+      </c>
+      <c r="AQ363">
+        <v>2</v>
+      </c>
+      <c r="AR363">
+        <v>1.51</v>
+      </c>
+      <c r="AS363">
+        <v>1.47</v>
+      </c>
+      <c r="AT363">
+        <v>2.98</v>
+      </c>
+      <c r="AU363">
         <v>3</v>
       </c>
-      <c r="L363">
-        <v>4</v>
-      </c>
-      <c r="M363">
+      <c r="AV363">
         <v>5</v>
       </c>
-      <c r="N363">
-        <v>9</v>
-      </c>
-      <c r="O363" t="s">
-        <v>307</v>
-      </c>
-      <c r="P363" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q363">
-        <v>3.25</v>
-      </c>
-      <c r="R363">
-        <v>2.2</v>
-      </c>
-      <c r="S363">
-        <v>3.25</v>
-      </c>
-      <c r="T363">
-        <v>1.4</v>
-      </c>
-      <c r="U363">
-        <v>2.75</v>
-      </c>
-      <c r="V363">
-        <v>2.75</v>
-      </c>
-      <c r="W363">
-        <v>1.4</v>
-      </c>
-      <c r="X363">
-        <v>8</v>
-      </c>
-      <c r="Y363">
-        <v>1.08</v>
-      </c>
-      <c r="Z363">
-        <v>2.7</v>
-      </c>
-      <c r="AA363">
-        <v>3.3</v>
-      </c>
-      <c r="AB363">
-        <v>2.5</v>
-      </c>
-      <c r="AC363">
-        <v>1.05</v>
-      </c>
-      <c r="AD363">
-        <v>9</v>
-      </c>
-      <c r="AE363">
-        <v>1.28</v>
-      </c>
-      <c r="AF363">
-        <v>3.5</v>
-      </c>
-      <c r="AG363">
-        <v>1.83</v>
-      </c>
-      <c r="AH363">
-        <v>1.93</v>
-      </c>
-      <c r="AI363">
-        <v>1.67</v>
-      </c>
-      <c r="AJ363">
+      <c r="AW363">
+        <v>5</v>
+      </c>
+      <c r="AX363">
+        <v>6</v>
+      </c>
+      <c r="AY363">
+        <v>11</v>
+      </c>
+      <c r="AZ363">
+        <v>14</v>
+      </c>
+      <c r="BA363">
+        <v>5</v>
+      </c>
+      <c r="BB363">
+        <v>5</v>
+      </c>
+      <c r="BC363">
+        <v>10</v>
+      </c>
+      <c r="BD363">
         <v>2.1</v>
-      </c>
-      <c r="AK363">
-        <v>1.47</v>
-      </c>
-      <c r="AL363">
-        <v>1.25</v>
-      </c>
-      <c r="AM363">
-        <v>1.47</v>
-      </c>
-      <c r="AN363">
-        <v>1.44</v>
-      </c>
-      <c r="AO363">
-        <v>1.06</v>
-      </c>
-      <c r="AP363">
-        <v>1.37</v>
-      </c>
-      <c r="AQ363">
-        <v>1.16</v>
-      </c>
-      <c r="AR363">
-        <v>1.41</v>
-      </c>
-      <c r="AS363">
-        <v>1.56</v>
-      </c>
-      <c r="AT363">
-        <v>2.97</v>
-      </c>
-      <c r="AU363">
-        <v>6</v>
-      </c>
-      <c r="AV363">
-        <v>7</v>
-      </c>
-      <c r="AW363">
-        <v>4</v>
-      </c>
-      <c r="AX363">
-        <v>3</v>
-      </c>
-      <c r="AY363">
-        <v>13</v>
-      </c>
-      <c r="AZ363">
-        <v>17</v>
-      </c>
-      <c r="BA363">
-        <v>6</v>
-      </c>
-      <c r="BB363">
-        <v>6</v>
-      </c>
-      <c r="BC363">
-        <v>12</v>
-      </c>
-      <c r="BD363">
-        <v>1.95</v>
       </c>
       <c r="BE363">
         <v>8</v>
       </c>
       <c r="BF363">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BG363">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="BH363">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="BI363">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="BJ363">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="BK363">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="BL363">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="BM363">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BN363">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="BO363">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="BP363">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="364" spans="1:68">
@@ -76547,7 +76550,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>7327257</v>
+        <v>7327256</v>
       </c>
       <c r="C364" t="s">
         <v>68</v>
@@ -76562,190 +76565,190 @@
         <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H364" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K364">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L364">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M364">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N364">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O364" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P364" t="s">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="Q364">
+        <v>3.25</v>
+      </c>
+      <c r="R364">
         <v>2.2</v>
       </c>
-      <c r="R364">
-        <v>2.3</v>
-      </c>
       <c r="S364">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T364">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U364">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V364">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W364">
+        <v>1.4</v>
+      </c>
+      <c r="X364">
+        <v>8</v>
+      </c>
+      <c r="Y364">
+        <v>1.08</v>
+      </c>
+      <c r="Z364">
+        <v>2.7</v>
+      </c>
+      <c r="AA364">
+        <v>3.3</v>
+      </c>
+      <c r="AB364">
+        <v>2.5</v>
+      </c>
+      <c r="AC364">
+        <v>1.05</v>
+      </c>
+      <c r="AD364">
+        <v>9</v>
+      </c>
+      <c r="AE364">
+        <v>1.28</v>
+      </c>
+      <c r="AF364">
+        <v>3.5</v>
+      </c>
+      <c r="AG364">
+        <v>1.83</v>
+      </c>
+      <c r="AH364">
+        <v>1.93</v>
+      </c>
+      <c r="AI364">
+        <v>1.67</v>
+      </c>
+      <c r="AJ364">
+        <v>2.1</v>
+      </c>
+      <c r="AK364">
+        <v>1.47</v>
+      </c>
+      <c r="AL364">
+        <v>1.25</v>
+      </c>
+      <c r="AM364">
+        <v>1.47</v>
+      </c>
+      <c r="AN364">
         <v>1.44</v>
       </c>
-      <c r="X364">
-        <v>7</v>
-      </c>
-      <c r="Y364">
-        <v>1.1</v>
-      </c>
-      <c r="Z364">
-        <v>1.6</v>
-      </c>
-      <c r="AA364">
-        <v>4.1</v>
-      </c>
-      <c r="AB364">
-        <v>5</v>
-      </c>
-      <c r="AC364">
-        <v>1.04</v>
-      </c>
-      <c r="AD364">
-        <v>10</v>
-      </c>
-      <c r="AE364">
-        <v>1.22</v>
-      </c>
-      <c r="AF364">
-        <v>4</v>
-      </c>
-      <c r="AG364">
-        <v>1.72</v>
-      </c>
-      <c r="AH364">
-        <v>2.06</v>
-      </c>
-      <c r="AI364">
-        <v>1.8</v>
-      </c>
-      <c r="AJ364">
-        <v>1.95</v>
-      </c>
-      <c r="AK364">
-        <v>1.12</v>
-      </c>
-      <c r="AL364">
-        <v>1.18</v>
-      </c>
-      <c r="AM364">
-        <v>2.25</v>
-      </c>
-      <c r="AN364">
-        <v>1.56</v>
-      </c>
       <c r="AO364">
-        <v>1.56</v>
+        <v>1.06</v>
       </c>
       <c r="AP364">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="AQ364">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="AR364">
         <v>1.41</v>
       </c>
       <c r="AS364">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AT364">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="AU364">
         <v>6</v>
       </c>
       <c r="AV364">
+        <v>7</v>
+      </c>
+      <c r="AW364">
+        <v>4</v>
+      </c>
+      <c r="AX364">
         <v>3</v>
       </c>
-      <c r="AW364">
-        <v>8</v>
-      </c>
-      <c r="AX364">
-        <v>4</v>
-      </c>
       <c r="AY364">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ364">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA364">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB364">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC364">
         <v>12</v>
       </c>
       <c r="BD364">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="BE364">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF364">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BG364">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH364">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="BI364">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="BJ364">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BK364">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BL364">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BM364">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BN364">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BO364">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="BP364">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="365" spans="1:68">
@@ -76753,7 +76756,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>7327258</v>
+        <v>7327257</v>
       </c>
       <c r="C365" t="s">
         <v>68</v>
@@ -76768,70 +76771,70 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H365" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365">
         <v>0</v>
       </c>
       <c r="K365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M365">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N365">
+        <v>1</v>
+      </c>
+      <c r="O365" t="s">
+        <v>308</v>
+      </c>
+      <c r="P365" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q365">
+        <v>2.2</v>
+      </c>
+      <c r="R365">
+        <v>2.3</v>
+      </c>
+      <c r="S365">
         <v>5</v>
       </c>
-      <c r="O365" t="s">
-        <v>309</v>
-      </c>
-      <c r="P365" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q365">
-        <v>3</v>
-      </c>
-      <c r="R365">
-        <v>2.38</v>
-      </c>
-      <c r="S365">
-        <v>3.1</v>
-      </c>
       <c r="T365">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U365">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V365">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W365">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X365">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y365">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z365">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA365">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB365">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="AC365">
         <v>1.04</v>
@@ -76840,118 +76843,118 @@
         <v>10</v>
       </c>
       <c r="AE365">
+        <v>1.22</v>
+      </c>
+      <c r="AF365">
+        <v>4</v>
+      </c>
+      <c r="AG365">
+        <v>1.72</v>
+      </c>
+      <c r="AH365">
+        <v>2.06</v>
+      </c>
+      <c r="AI365">
+        <v>1.8</v>
+      </c>
+      <c r="AJ365">
+        <v>1.95</v>
+      </c>
+      <c r="AK365">
+        <v>1.12</v>
+      </c>
+      <c r="AL365">
         <v>1.18</v>
       </c>
-      <c r="AF365">
-        <v>4.5</v>
-      </c>
-      <c r="AG365">
+      <c r="AM365">
+        <v>2.25</v>
+      </c>
+      <c r="AN365">
         <v>1.56</v>
       </c>
-      <c r="AH365">
-        <v>2.33</v>
-      </c>
-      <c r="AI365">
+      <c r="AO365">
+        <v>1.56</v>
+      </c>
+      <c r="AP365">
+        <v>1.63</v>
+      </c>
+      <c r="AQ365">
+        <v>1.47</v>
+      </c>
+      <c r="AR365">
+        <v>1.41</v>
+      </c>
+      <c r="AS365">
+        <v>1.42</v>
+      </c>
+      <c r="AT365">
+        <v>2.83</v>
+      </c>
+      <c r="AU365">
+        <v>6</v>
+      </c>
+      <c r="AV365">
+        <v>3</v>
+      </c>
+      <c r="AW365">
+        <v>8</v>
+      </c>
+      <c r="AX365">
+        <v>4</v>
+      </c>
+      <c r="AY365">
+        <v>22</v>
+      </c>
+      <c r="AZ365">
+        <v>10</v>
+      </c>
+      <c r="BA365">
+        <v>7</v>
+      </c>
+      <c r="BB365">
+        <v>5</v>
+      </c>
+      <c r="BC365">
+        <v>12</v>
+      </c>
+      <c r="BD365">
         <v>1.5</v>
-      </c>
-      <c r="AJ365">
-        <v>2.5</v>
-      </c>
-      <c r="AK365">
-        <v>1.47</v>
-      </c>
-      <c r="AL365">
-        <v>1.22</v>
-      </c>
-      <c r="AM365">
-        <v>1.53</v>
-      </c>
-      <c r="AN365">
-        <v>1.06</v>
-      </c>
-      <c r="AO365">
-        <v>1.44</v>
-      </c>
-      <c r="AP365">
-        <v>1</v>
-      </c>
-      <c r="AQ365">
-        <v>1.53</v>
-      </c>
-      <c r="AR365">
-        <v>1.5</v>
-      </c>
-      <c r="AS365">
-        <v>1.56</v>
-      </c>
-      <c r="AT365">
-        <v>3.06</v>
-      </c>
-      <c r="AU365">
-        <v>5</v>
-      </c>
-      <c r="AV365">
-        <v>12</v>
-      </c>
-      <c r="AW365">
-        <v>5</v>
-      </c>
-      <c r="AX365">
-        <v>6</v>
-      </c>
-      <c r="AY365">
-        <v>13</v>
-      </c>
-      <c r="AZ365">
-        <v>22</v>
-      </c>
-      <c r="BA365">
-        <v>3</v>
-      </c>
-      <c r="BB365">
-        <v>7</v>
-      </c>
-      <c r="BC365">
-        <v>10</v>
-      </c>
-      <c r="BD365">
-        <v>1.83</v>
       </c>
       <c r="BE365">
         <v>8.5</v>
       </c>
       <c r="BF365">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="BG365">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="BH365">
-        <v>4.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI365">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="BJ365">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="BK365">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="BL365">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BM365">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="BN365">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="BO365">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BP365">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -76959,7 +76962,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>7327259</v>
+        <v>7327258</v>
       </c>
       <c r="C366" t="s">
         <v>68</v>
@@ -76974,190 +76977,190 @@
         <v>37</v>
       </c>
       <c r="G366" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H366" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K366">
         <v>1</v>
       </c>
       <c r="L366">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M366">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N366">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O366" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="P366" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q366">
+        <v>3</v>
+      </c>
+      <c r="R366">
+        <v>2.38</v>
+      </c>
+      <c r="S366">
         <v>3.1</v>
       </c>
-      <c r="R366">
-        <v>2.1</v>
-      </c>
-      <c r="S366">
+      <c r="T366">
+        <v>1.3</v>
+      </c>
+      <c r="U366">
         <v>3.4</v>
       </c>
-      <c r="T366">
-        <v>1.4</v>
-      </c>
-      <c r="U366">
-        <v>2.75</v>
-      </c>
       <c r="V366">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="W366">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="X366">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y366">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z366">
+        <v>2.4</v>
+      </c>
+      <c r="AA366">
+        <v>3.5</v>
+      </c>
+      <c r="AB366">
+        <v>2.7</v>
+      </c>
+      <c r="AC366">
+        <v>1.04</v>
+      </c>
+      <c r="AD366">
+        <v>10</v>
+      </c>
+      <c r="AE366">
+        <v>1.18</v>
+      </c>
+      <c r="AF366">
+        <v>4.5</v>
+      </c>
+      <c r="AG366">
+        <v>1.56</v>
+      </c>
+      <c r="AH366">
+        <v>2.33</v>
+      </c>
+      <c r="AI366">
+        <v>1.5</v>
+      </c>
+      <c r="AJ366">
         <v>2.5</v>
       </c>
-      <c r="AA366">
-        <v>3.2</v>
-      </c>
-      <c r="AB366">
-        <v>2.8</v>
-      </c>
-      <c r="AC366">
-        <v>1.06</v>
-      </c>
-      <c r="AD366">
-        <v>8.5</v>
-      </c>
-      <c r="AE366">
-        <v>1.3</v>
-      </c>
-      <c r="AF366">
-        <v>3.3</v>
-      </c>
-      <c r="AG366">
-        <v>1.93</v>
-      </c>
-      <c r="AH366">
-        <v>1.82</v>
-      </c>
-      <c r="AI366">
-        <v>1.7</v>
-      </c>
-      <c r="AJ366">
-        <v>2.05</v>
-      </c>
       <c r="AK366">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AL366">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM366">
         <v>1.53</v>
       </c>
       <c r="AN366">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AO366">
         <v>1.44</v>
       </c>
       <c r="AP366">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AQ366">
         <v>1.53</v>
       </c>
       <c r="AR366">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS366">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AT366">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="AU366">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV366">
+        <v>12</v>
+      </c>
+      <c r="AW366">
         <v>5</v>
       </c>
-      <c r="AW366">
-        <v>4</v>
-      </c>
       <c r="AX366">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY366">
+        <v>13</v>
+      </c>
+      <c r="AZ366">
+        <v>22</v>
+      </c>
+      <c r="BA366">
+        <v>3</v>
+      </c>
+      <c r="BB366">
+        <v>7</v>
+      </c>
+      <c r="BC366">
         <v>10</v>
       </c>
-      <c r="AZ366">
-        <v>10</v>
-      </c>
-      <c r="BA366">
-        <v>10</v>
-      </c>
-      <c r="BB366">
-        <v>4</v>
-      </c>
-      <c r="BC366">
-        <v>14</v>
-      </c>
       <c r="BD366">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BE366">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF366">
+        <v>2.2</v>
+      </c>
+      <c r="BG366">
+        <v>1.17</v>
+      </c>
+      <c r="BH366">
+        <v>4.65</v>
+      </c>
+      <c r="BI366">
+        <v>1.32</v>
+      </c>
+      <c r="BJ366">
+        <v>3.2</v>
+      </c>
+      <c r="BK366">
+        <v>1.55</v>
+      </c>
+      <c r="BL366">
+        <v>2.35</v>
+      </c>
+      <c r="BM366">
+        <v>1.85</v>
+      </c>
+      <c r="BN366">
+        <v>1.95</v>
+      </c>
+      <c r="BO366">
         <v>2.4</v>
       </c>
-      <c r="BG366">
-        <v>1.3</v>
-      </c>
-      <c r="BH366">
-        <v>3.35</v>
-      </c>
-      <c r="BI366">
+      <c r="BP366">
         <v>1.53</v>
-      </c>
-      <c r="BJ366">
-        <v>2.4</v>
-      </c>
-      <c r="BK366">
-        <v>1.95</v>
-      </c>
-      <c r="BL366">
-        <v>1.85</v>
-      </c>
-      <c r="BM366">
-        <v>2.4</v>
-      </c>
-      <c r="BN366">
-        <v>1.53</v>
-      </c>
-      <c r="BO366">
-        <v>3.25</v>
-      </c>
-      <c r="BP366">
-        <v>1.31</v>
       </c>
     </row>
     <row r="367" spans="1:68">
@@ -77165,7 +77168,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>7327260</v>
+        <v>7327259</v>
       </c>
       <c r="C367" t="s">
         <v>68</v>
@@ -77180,190 +77183,190 @@
         <v>37</v>
       </c>
       <c r="G367" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H367" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M367">
         <v>1</v>
       </c>
       <c r="N367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O367" t="s">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="P367" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="Q367">
         <v>3.1</v>
       </c>
       <c r="R367">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S367">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T367">
+        <v>1.4</v>
+      </c>
+      <c r="U367">
+        <v>2.75</v>
+      </c>
+      <c r="V367">
+        <v>3</v>
+      </c>
+      <c r="W367">
         <v>1.36</v>
       </c>
-      <c r="U367">
-        <v>3</v>
-      </c>
-      <c r="V367">
-        <v>2.63</v>
-      </c>
-      <c r="W367">
-        <v>1.44</v>
-      </c>
       <c r="X367">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y367">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z367">
         <v>2.5</v>
       </c>
       <c r="AA367">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB367">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AC367">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD367">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE367">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF367">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AG367">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="AH367">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AI367">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ367">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK367">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AL367">
         <v>1.25</v>
       </c>
       <c r="AM367">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AN367">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AO367">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP367">
-        <v>1.16</v>
+        <v>0.95</v>
       </c>
       <c r="AQ367">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AR367">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AS367">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AT367">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AU367">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV367">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW367">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX367">
         <v>4</v>
       </c>
       <c r="AY367">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ367">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA367">
+        <v>10</v>
+      </c>
+      <c r="BB367">
         <v>4</v>
       </c>
-      <c r="BB367">
-        <v>8</v>
-      </c>
       <c r="BC367">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD367">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="BE367">
         <v>8</v>
       </c>
       <c r="BF367">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BG367">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH367">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="BI367">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BJ367">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BK367">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BL367">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BM367">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="BN367">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BO367">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="BP367">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="368" spans="1:68">
@@ -77371,7 +77374,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>7327261</v>
+        <v>7327260</v>
       </c>
       <c r="C368" t="s">
         <v>68</v>
@@ -77386,160 +77389,160 @@
         <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H368" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M368">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N368">
         <v>3</v>
       </c>
       <c r="O368" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="P368" t="s">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="Q368">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R368">
         <v>2.2</v>
       </c>
       <c r="S368">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T368">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U368">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V368">
+        <v>2.63</v>
+      </c>
+      <c r="W368">
+        <v>1.44</v>
+      </c>
+      <c r="X368">
+        <v>7</v>
+      </c>
+      <c r="Y368">
+        <v>1.1</v>
+      </c>
+      <c r="Z368">
+        <v>2.5</v>
+      </c>
+      <c r="AA368">
+        <v>3.4</v>
+      </c>
+      <c r="AB368">
+        <v>2.65</v>
+      </c>
+      <c r="AC368">
+        <v>1.05</v>
+      </c>
+      <c r="AD368">
+        <v>9</v>
+      </c>
+      <c r="AE368">
+        <v>1.25</v>
+      </c>
+      <c r="AF368">
+        <v>3.75</v>
+      </c>
+      <c r="AG368">
+        <v>1.78</v>
+      </c>
+      <c r="AH368">
+        <v>1.98</v>
+      </c>
+      <c r="AI368">
+        <v>1.62</v>
+      </c>
+      <c r="AJ368">
+        <v>2.2</v>
+      </c>
+      <c r="AK368">
+        <v>1.47</v>
+      </c>
+      <c r="AL368">
+        <v>1.25</v>
+      </c>
+      <c r="AM368">
+        <v>1.5</v>
+      </c>
+      <c r="AN368">
+        <v>1.06</v>
+      </c>
+      <c r="AO368">
+        <v>1.5</v>
+      </c>
+      <c r="AP368">
+        <v>1.16</v>
+      </c>
+      <c r="AQ368">
+        <v>1.42</v>
+      </c>
+      <c r="AR368">
+        <v>1.28</v>
+      </c>
+      <c r="AS368">
+        <v>1.17</v>
+      </c>
+      <c r="AT368">
+        <v>2.45</v>
+      </c>
+      <c r="AU368">
         <v>3</v>
       </c>
-      <c r="W368">
-        <v>1.36</v>
-      </c>
-      <c r="X368">
-        <v>8</v>
-      </c>
-      <c r="Y368">
-        <v>1.08</v>
-      </c>
-      <c r="Z368">
-        <v>1.65</v>
-      </c>
-      <c r="AA368">
-        <v>3.75</v>
-      </c>
-      <c r="AB368">
-        <v>5</v>
-      </c>
-      <c r="AC368">
-        <v>1.06</v>
-      </c>
-      <c r="AD368">
-        <v>8.5</v>
-      </c>
-      <c r="AE368">
-        <v>1.3</v>
-      </c>
-      <c r="AF368">
-        <v>3.3</v>
-      </c>
-      <c r="AG368">
-        <v>1.98</v>
-      </c>
-      <c r="AH368">
-        <v>1.78</v>
-      </c>
-      <c r="AI368">
-        <v>1.95</v>
-      </c>
-      <c r="AJ368">
-        <v>1.8</v>
-      </c>
-      <c r="AK368">
-        <v>1.12</v>
-      </c>
-      <c r="AL368">
-        <v>1.2</v>
-      </c>
-      <c r="AM368">
-        <v>2.15</v>
-      </c>
-      <c r="AN368">
-        <v>1.5</v>
-      </c>
-      <c r="AO368">
-        <v>0.61</v>
-      </c>
-      <c r="AP368">
-        <v>1.42</v>
-      </c>
-      <c r="AQ368">
-        <v>0.74</v>
-      </c>
-      <c r="AR368">
-        <v>1.1</v>
-      </c>
-      <c r="AS368">
-        <v>1.26</v>
-      </c>
-      <c r="AT368">
-        <v>2.36</v>
-      </c>
-      <c r="AU368">
-        <v>5</v>
-      </c>
       <c r="AV368">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW368">
         <v>9</v>
       </c>
       <c r="AX368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY368">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ368">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA368">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB368">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC368">
+        <v>12</v>
+      </c>
+      <c r="BD368">
+        <v>1.95</v>
+      </c>
+      <c r="BE368">
         <v>8</v>
       </c>
-      <c r="BD368">
-        <v>1.62</v>
-      </c>
-      <c r="BE368">
-        <v>8.5</v>
-      </c>
       <c r="BF368">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="BG368">
         <v>1.26</v>
@@ -77577,7 +77580,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>7327262</v>
+        <v>7327261</v>
       </c>
       <c r="C369" t="s">
         <v>68</v>
@@ -77592,10 +77595,10 @@
         <v>37</v>
       </c>
       <c r="G369" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H369" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -77610,25 +77613,25 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O369" t="s">
         <v>91</v>
       </c>
       <c r="P369" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q369">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="R369">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S369">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="T369">
         <v>1.4</v>
@@ -77649,13 +77652,13 @@
         <v>1.08</v>
       </c>
       <c r="Z369">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="AA369">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AB369">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="AC369">
         <v>1.06</v>
@@ -77670,82 +77673,82 @@
         <v>3.3</v>
       </c>
       <c r="AG369">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AH369">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AI369">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ369">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK369">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="AL369">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM369">
-        <v>1.38</v>
+        <v>2.15</v>
       </c>
       <c r="AN369">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO369">
-        <v>1.28</v>
+        <v>0.61</v>
       </c>
       <c r="AP369">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ369">
-        <v>1.37</v>
+        <v>0.74</v>
       </c>
       <c r="AR369">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="AS369">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AT369">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="AU369">
+        <v>5</v>
+      </c>
+      <c r="AV369">
         <v>6</v>
-      </c>
-      <c r="AV369">
-        <v>5</v>
       </c>
       <c r="AW369">
         <v>9</v>
       </c>
       <c r="AX369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY369">
         <v>20</v>
       </c>
       <c r="AZ369">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA369">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB369">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC369">
         <v>8</v>
       </c>
       <c r="BD369">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="BE369">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF369">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="BG369">
         <v>1.26</v>
@@ -77982,6 +77985,212 @@
       </c>
       <c r="BP370">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>7327263</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45627.08333333334</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>70</v>
+      </c>
+      <c r="H371" t="s">
+        <v>89</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371">
+        <v>3</v>
+      </c>
+      <c r="L371">
+        <v>5</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>6</v>
+      </c>
+      <c r="O371" t="s">
+        <v>311</v>
+      </c>
+      <c r="P371" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q371">
+        <v>1.8</v>
+      </c>
+      <c r="R371">
+        <v>2.75</v>
+      </c>
+      <c r="S371">
+        <v>7</v>
+      </c>
+      <c r="T371">
+        <v>1.25</v>
+      </c>
+      <c r="U371">
+        <v>3.75</v>
+      </c>
+      <c r="V371">
+        <v>2.1</v>
+      </c>
+      <c r="W371">
+        <v>1.67</v>
+      </c>
+      <c r="X371">
+        <v>4.5</v>
+      </c>
+      <c r="Y371">
+        <v>1.18</v>
+      </c>
+      <c r="Z371">
+        <v>1.27</v>
+      </c>
+      <c r="AA371">
+        <v>5.27</v>
+      </c>
+      <c r="AB371">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AC371">
+        <v>0</v>
+      </c>
+      <c r="AD371">
+        <v>0</v>
+      </c>
+      <c r="AE371">
+        <v>1.13</v>
+      </c>
+      <c r="AF371">
+        <v>5.75</v>
+      </c>
+      <c r="AG371">
+        <v>1.4</v>
+      </c>
+      <c r="AH371">
+        <v>2.75</v>
+      </c>
+      <c r="AI371">
+        <v>1.7</v>
+      </c>
+      <c r="AJ371">
+        <v>2.05</v>
+      </c>
+      <c r="AK371">
+        <v>1.04</v>
+      </c>
+      <c r="AL371">
+        <v>1.11</v>
+      </c>
+      <c r="AM371">
+        <v>3.25</v>
+      </c>
+      <c r="AN371">
+        <v>2</v>
+      </c>
+      <c r="AO371">
+        <v>0.78</v>
+      </c>
+      <c r="AP371">
+        <v>2.05</v>
+      </c>
+      <c r="AQ371">
+        <v>0.74</v>
+      </c>
+      <c r="AR371">
+        <v>1.95</v>
+      </c>
+      <c r="AS371">
+        <v>1.23</v>
+      </c>
+      <c r="AT371">
+        <v>3.18</v>
+      </c>
+      <c r="AU371">
+        <v>11</v>
+      </c>
+      <c r="AV371">
+        <v>3</v>
+      </c>
+      <c r="AW371">
+        <v>7</v>
+      </c>
+      <c r="AX371">
+        <v>3</v>
+      </c>
+      <c r="AY371">
+        <v>22</v>
+      </c>
+      <c r="AZ371">
+        <v>6</v>
+      </c>
+      <c r="BA371">
+        <v>6</v>
+      </c>
+      <c r="BB371">
+        <v>1</v>
+      </c>
+      <c r="BC371">
+        <v>7</v>
+      </c>
+      <c r="BD371">
+        <v>1.25</v>
+      </c>
+      <c r="BE371">
+        <v>10</v>
+      </c>
+      <c r="BF371">
+        <v>4.5</v>
+      </c>
+      <c r="BG371">
+        <v>0</v>
+      </c>
+      <c r="BH371">
+        <v>0</v>
+      </c>
+      <c r="BI371">
+        <v>0</v>
+      </c>
+      <c r="BJ371">
+        <v>0</v>
+      </c>
+      <c r="BK371">
+        <v>1.88</v>
+      </c>
+      <c r="BL371">
+        <v>1.92</v>
+      </c>
+      <c r="BM371">
+        <v>0</v>
+      </c>
+      <c r="BN371">
+        <v>0</v>
+      </c>
+      <c r="BO371">
+        <v>0</v>
+      </c>
+      <c r="BP371">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -1387,9 +1387,6 @@
     <t>['45+4', '47', '64', '71']</t>
   </si>
   <si>
-    <t>['10', '14']</t>
-  </si>
-  <si>
     <t>['16', '22', '58', '65', '90+4']</t>
   </si>
   <si>
@@ -1400,6 +1397,9 @@
   </si>
   <si>
     <t>['8', '10', '66']</t>
+  </si>
+  <si>
+    <t>['10', '14']</t>
   </si>
 </sst>
 </file>
@@ -76138,7 +76138,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>7327262</v>
+        <v>7327255</v>
       </c>
       <c r="C362" t="s">
         <v>68</v>
@@ -76147,196 +76147,196 @@
         <v>69</v>
       </c>
       <c r="E362" s="2">
-        <v>45625.875</v>
+        <v>45626.08333333334</v>
       </c>
       <c r="F362">
         <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H362" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N362">
         <v>2</v>
       </c>
       <c r="O362" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P362" t="s">
-        <v>457</v>
+        <v>239</v>
       </c>
       <c r="Q362">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R362">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S362">
+        <v>2.88</v>
+      </c>
+      <c r="T362">
+        <v>1.44</v>
+      </c>
+      <c r="U362">
+        <v>2.63</v>
+      </c>
+      <c r="V362">
+        <v>3.25</v>
+      </c>
+      <c r="W362">
+        <v>1.33</v>
+      </c>
+      <c r="X362">
+        <v>10</v>
+      </c>
+      <c r="Y362">
+        <v>1.06</v>
+      </c>
+      <c r="Z362">
+        <v>3.3</v>
+      </c>
+      <c r="AA362">
+        <v>3.2</v>
+      </c>
+      <c r="AB362">
+        <v>2.2</v>
+      </c>
+      <c r="AC362">
+        <v>1.07</v>
+      </c>
+      <c r="AD362">
+        <v>8</v>
+      </c>
+      <c r="AE362">
+        <v>1.36</v>
+      </c>
+      <c r="AF362">
+        <v>2.95</v>
+      </c>
+      <c r="AG362">
+        <v>2.16</v>
+      </c>
+      <c r="AH362">
+        <v>1.66</v>
+      </c>
+      <c r="AI362">
+        <v>1.91</v>
+      </c>
+      <c r="AJ362">
+        <v>1.91</v>
+      </c>
+      <c r="AK362">
+        <v>1.65</v>
+      </c>
+      <c r="AL362">
+        <v>1.28</v>
+      </c>
+      <c r="AM362">
+        <v>1.33</v>
+      </c>
+      <c r="AN362">
+        <v>1.17</v>
+      </c>
+      <c r="AO362">
+        <v>2.06</v>
+      </c>
+      <c r="AP362">
+        <v>1.16</v>
+      </c>
+      <c r="AQ362">
+        <v>2</v>
+      </c>
+      <c r="AR362">
+        <v>1.51</v>
+      </c>
+      <c r="AS362">
+        <v>1.47</v>
+      </c>
+      <c r="AT362">
+        <v>2.98</v>
+      </c>
+      <c r="AU362">
         <v>3</v>
-      </c>
-      <c r="T362">
-        <v>1.4</v>
-      </c>
-      <c r="U362">
-        <v>2.75</v>
-      </c>
-      <c r="V362">
-        <v>3</v>
-      </c>
-      <c r="W362">
-        <v>1.36</v>
-      </c>
-      <c r="X362">
-        <v>8</v>
-      </c>
-      <c r="Y362">
-        <v>1.08</v>
-      </c>
-      <c r="Z362">
-        <v>3</v>
-      </c>
-      <c r="AA362">
-        <v>3.3</v>
-      </c>
-      <c r="AB362">
-        <v>2.3</v>
-      </c>
-      <c r="AC362">
-        <v>1.06</v>
-      </c>
-      <c r="AD362">
-        <v>8.5</v>
-      </c>
-      <c r="AE362">
-        <v>1.3</v>
-      </c>
-      <c r="AF362">
-        <v>3.3</v>
-      </c>
-      <c r="AG362">
-        <v>1.93</v>
-      </c>
-      <c r="AH362">
-        <v>1.83</v>
-      </c>
-      <c r="AI362">
-        <v>1.7</v>
-      </c>
-      <c r="AJ362">
-        <v>2.05</v>
-      </c>
-      <c r="AK362">
-        <v>1.57</v>
-      </c>
-      <c r="AL362">
-        <v>1.25</v>
-      </c>
-      <c r="AM362">
-        <v>1.38</v>
-      </c>
-      <c r="AN362">
-        <v>1.67</v>
-      </c>
-      <c r="AO362">
-        <v>1.28</v>
-      </c>
-      <c r="AP362">
-        <v>1.58</v>
-      </c>
-      <c r="AQ362">
-        <v>1.37</v>
-      </c>
-      <c r="AR362">
-        <v>1.46</v>
-      </c>
-      <c r="AS362">
-        <v>1.39</v>
-      </c>
-      <c r="AT362">
-        <v>2.85</v>
-      </c>
-      <c r="AU362">
-        <v>6</v>
       </c>
       <c r="AV362">
         <v>5</v>
       </c>
       <c r="AW362">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX362">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY362">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ362">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA362">
         <v>5</v>
       </c>
       <c r="BB362">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC362">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD362">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BE362">
         <v>8</v>
       </c>
       <c r="BF362">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BG362">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="BH362">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="BI362">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="BJ362">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="BK362">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="BL362">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BM362">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BN362">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BO362">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BP362">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="363" spans="1:68">
@@ -76344,7 +76344,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>7327255</v>
+        <v>7327256</v>
       </c>
       <c r="C363" t="s">
         <v>68</v>
@@ -76359,190 +76359,190 @@
         <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H363" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I363">
         <v>1</v>
       </c>
       <c r="J363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K363">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L363">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M363">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N363">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O363" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="P363" t="s">
-        <v>239</v>
+        <v>457</v>
       </c>
       <c r="Q363">
+        <v>3.25</v>
+      </c>
+      <c r="R363">
+        <v>2.2</v>
+      </c>
+      <c r="S363">
+        <v>3.25</v>
+      </c>
+      <c r="T363">
+        <v>1.4</v>
+      </c>
+      <c r="U363">
+        <v>2.75</v>
+      </c>
+      <c r="V363">
+        <v>2.75</v>
+      </c>
+      <c r="W363">
+        <v>1.4</v>
+      </c>
+      <c r="X363">
+        <v>8</v>
+      </c>
+      <c r="Y363">
+        <v>1.08</v>
+      </c>
+      <c r="Z363">
+        <v>2.7</v>
+      </c>
+      <c r="AA363">
+        <v>3.3</v>
+      </c>
+      <c r="AB363">
+        <v>2.5</v>
+      </c>
+      <c r="AC363">
+        <v>1.05</v>
+      </c>
+      <c r="AD363">
+        <v>9</v>
+      </c>
+      <c r="AE363">
+        <v>1.28</v>
+      </c>
+      <c r="AF363">
+        <v>3.5</v>
+      </c>
+      <c r="AG363">
+        <v>1.83</v>
+      </c>
+      <c r="AH363">
+        <v>1.93</v>
+      </c>
+      <c r="AI363">
+        <v>1.67</v>
+      </c>
+      <c r="AJ363">
+        <v>2.1</v>
+      </c>
+      <c r="AK363">
+        <v>1.47</v>
+      </c>
+      <c r="AL363">
+        <v>1.25</v>
+      </c>
+      <c r="AM363">
+        <v>1.47</v>
+      </c>
+      <c r="AN363">
+        <v>1.44</v>
+      </c>
+      <c r="AO363">
+        <v>1.06</v>
+      </c>
+      <c r="AP363">
+        <v>1.37</v>
+      </c>
+      <c r="AQ363">
+        <v>1.16</v>
+      </c>
+      <c r="AR363">
+        <v>1.41</v>
+      </c>
+      <c r="AS363">
+        <v>1.56</v>
+      </c>
+      <c r="AT363">
+        <v>2.97</v>
+      </c>
+      <c r="AU363">
+        <v>6</v>
+      </c>
+      <c r="AV363">
+        <v>7</v>
+      </c>
+      <c r="AW363">
         <v>4</v>
       </c>
-      <c r="R363">
-        <v>2.05</v>
-      </c>
-      <c r="S363">
-        <v>2.88</v>
-      </c>
-      <c r="T363">
-        <v>1.44</v>
-      </c>
-      <c r="U363">
-        <v>2.63</v>
-      </c>
-      <c r="V363">
-        <v>3.25</v>
-      </c>
-      <c r="W363">
-        <v>1.33</v>
-      </c>
-      <c r="X363">
-        <v>10</v>
-      </c>
-      <c r="Y363">
-        <v>1.06</v>
-      </c>
-      <c r="Z363">
-        <v>3.3</v>
-      </c>
-      <c r="AA363">
-        <v>3.2</v>
-      </c>
-      <c r="AB363">
-        <v>2.2</v>
-      </c>
-      <c r="AC363">
-        <v>1.07</v>
-      </c>
-      <c r="AD363">
-        <v>8</v>
-      </c>
-      <c r="AE363">
-        <v>1.36</v>
-      </c>
-      <c r="AF363">
-        <v>2.95</v>
-      </c>
-      <c r="AG363">
-        <v>2.16</v>
-      </c>
-      <c r="AH363">
-        <v>1.66</v>
-      </c>
-      <c r="AI363">
-        <v>1.91</v>
-      </c>
-      <c r="AJ363">
-        <v>1.91</v>
-      </c>
-      <c r="AK363">
-        <v>1.65</v>
-      </c>
-      <c r="AL363">
-        <v>1.28</v>
-      </c>
-      <c r="AM363">
-        <v>1.33</v>
-      </c>
-      <c r="AN363">
-        <v>1.17</v>
-      </c>
-      <c r="AO363">
-        <v>2.06</v>
-      </c>
-      <c r="AP363">
-        <v>1.16</v>
-      </c>
-      <c r="AQ363">
-        <v>2</v>
-      </c>
-      <c r="AR363">
-        <v>1.51</v>
-      </c>
-      <c r="AS363">
-        <v>1.47</v>
-      </c>
-      <c r="AT363">
-        <v>2.98</v>
-      </c>
-      <c r="AU363">
+      <c r="AX363">
         <v>3</v>
       </c>
-      <c r="AV363">
-        <v>5</v>
-      </c>
-      <c r="AW363">
-        <v>5</v>
-      </c>
-      <c r="AX363">
+      <c r="AY363">
+        <v>13</v>
+      </c>
+      <c r="AZ363">
+        <v>17</v>
+      </c>
+      <c r="BA363">
         <v>6</v>
       </c>
-      <c r="AY363">
-        <v>11</v>
-      </c>
-      <c r="AZ363">
-        <v>14</v>
-      </c>
-      <c r="BA363">
-        <v>5</v>
-      </c>
       <c r="BB363">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC363">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD363">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BE363">
         <v>8</v>
       </c>
       <c r="BF363">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BG363">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BH363">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="BI363">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="BJ363">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK363">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="BL363">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="BM363">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="BN363">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="BO363">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="BP363">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="364" spans="1:68">
@@ -76550,7 +76550,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>7327256</v>
+        <v>7327257</v>
       </c>
       <c r="C364" t="s">
         <v>68</v>
@@ -76565,190 +76565,190 @@
         <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H364" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K364">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364" t="s">
+        <v>308</v>
+      </c>
+      <c r="P364" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q364">
+        <v>2.2</v>
+      </c>
+      <c r="R364">
+        <v>2.3</v>
+      </c>
+      <c r="S364">
+        <v>5</v>
+      </c>
+      <c r="T364">
+        <v>1.33</v>
+      </c>
+      <c r="U364">
+        <v>3.25</v>
+      </c>
+      <c r="V364">
+        <v>2.63</v>
+      </c>
+      <c r="W364">
+        <v>1.44</v>
+      </c>
+      <c r="X364">
+        <v>7</v>
+      </c>
+      <c r="Y364">
+        <v>1.1</v>
+      </c>
+      <c r="Z364">
+        <v>1.6</v>
+      </c>
+      <c r="AA364">
+        <v>4.1</v>
+      </c>
+      <c r="AB364">
+        <v>5</v>
+      </c>
+      <c r="AC364">
+        <v>1.04</v>
+      </c>
+      <c r="AD364">
+        <v>10</v>
+      </c>
+      <c r="AE364">
+        <v>1.22</v>
+      </c>
+      <c r="AF364">
         <v>4</v>
       </c>
-      <c r="M364">
-        <v>5</v>
-      </c>
-      <c r="N364">
-        <v>9</v>
-      </c>
-      <c r="O364" t="s">
-        <v>307</v>
-      </c>
-      <c r="P364" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q364">
-        <v>3.25</v>
-      </c>
-      <c r="R364">
-        <v>2.2</v>
-      </c>
-      <c r="S364">
-        <v>3.25</v>
-      </c>
-      <c r="T364">
-        <v>1.4</v>
-      </c>
-      <c r="U364">
-        <v>2.75</v>
-      </c>
-      <c r="V364">
-        <v>2.75</v>
-      </c>
-      <c r="W364">
-        <v>1.4</v>
-      </c>
-      <c r="X364">
-        <v>8</v>
-      </c>
-      <c r="Y364">
-        <v>1.08</v>
-      </c>
-      <c r="Z364">
-        <v>2.7</v>
-      </c>
-      <c r="AA364">
-        <v>3.3</v>
-      </c>
-      <c r="AB364">
-        <v>2.5</v>
-      </c>
-      <c r="AC364">
-        <v>1.05</v>
-      </c>
-      <c r="AD364">
-        <v>9</v>
-      </c>
-      <c r="AE364">
-        <v>1.28</v>
-      </c>
-      <c r="AF364">
-        <v>3.5</v>
-      </c>
       <c r="AG364">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AH364">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AI364">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ364">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK364">
+        <v>1.12</v>
+      </c>
+      <c r="AL364">
+        <v>1.18</v>
+      </c>
+      <c r="AM364">
+        <v>2.25</v>
+      </c>
+      <c r="AN364">
+        <v>1.56</v>
+      </c>
+      <c r="AO364">
+        <v>1.56</v>
+      </c>
+      <c r="AP364">
+        <v>1.63</v>
+      </c>
+      <c r="AQ364">
         <v>1.47</v>
-      </c>
-      <c r="AL364">
-        <v>1.25</v>
-      </c>
-      <c r="AM364">
-        <v>1.47</v>
-      </c>
-      <c r="AN364">
-        <v>1.44</v>
-      </c>
-      <c r="AO364">
-        <v>1.06</v>
-      </c>
-      <c r="AP364">
-        <v>1.37</v>
-      </c>
-      <c r="AQ364">
-        <v>1.16</v>
       </c>
       <c r="AR364">
         <v>1.41</v>
       </c>
       <c r="AS364">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AT364">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="AU364">
         <v>6</v>
       </c>
       <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>8</v>
+      </c>
+      <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
+        <v>22</v>
+      </c>
+      <c r="AZ364">
+        <v>10</v>
+      </c>
+      <c r="BA364">
         <v>7</v>
       </c>
-      <c r="AW364">
-        <v>4</v>
-      </c>
-      <c r="AX364">
-        <v>3</v>
-      </c>
-      <c r="AY364">
-        <v>13</v>
-      </c>
-      <c r="AZ364">
-        <v>17</v>
-      </c>
-      <c r="BA364">
-        <v>6</v>
-      </c>
       <c r="BB364">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC364">
         <v>12</v>
       </c>
       <c r="BD364">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="BE364">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF364">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="BG364">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH364">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="BI364">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="BJ364">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="BK364">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="BL364">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BM364">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BN364">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BO364">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="BP364">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="365" spans="1:68">
@@ -76756,7 +76756,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>7327257</v>
+        <v>7327258</v>
       </c>
       <c r="C365" t="s">
         <v>68</v>
@@ -76771,70 +76771,70 @@
         <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H365" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365">
         <v>0</v>
       </c>
       <c r="K365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M365">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N365">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O365" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P365" t="s">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="Q365">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R365">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S365">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="T365">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U365">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V365">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W365">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X365">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y365">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z365">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AA365">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB365">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="AC365">
         <v>1.04</v>
@@ -76843,118 +76843,118 @@
         <v>10</v>
       </c>
       <c r="AE365">
+        <v>1.18</v>
+      </c>
+      <c r="AF365">
+        <v>4.5</v>
+      </c>
+      <c r="AG365">
+        <v>1.56</v>
+      </c>
+      <c r="AH365">
+        <v>2.33</v>
+      </c>
+      <c r="AI365">
+        <v>1.5</v>
+      </c>
+      <c r="AJ365">
+        <v>2.5</v>
+      </c>
+      <c r="AK365">
+        <v>1.47</v>
+      </c>
+      <c r="AL365">
         <v>1.22</v>
       </c>
-      <c r="AF365">
-        <v>4</v>
-      </c>
-      <c r="AG365">
-        <v>1.72</v>
-      </c>
-      <c r="AH365">
-        <v>2.06</v>
-      </c>
-      <c r="AI365">
-        <v>1.8</v>
-      </c>
-      <c r="AJ365">
-        <v>1.95</v>
-      </c>
-      <c r="AK365">
-        <v>1.12</v>
-      </c>
-      <c r="AL365">
-        <v>1.18</v>
-      </c>
       <c r="AM365">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AN365">
+        <v>1.06</v>
+      </c>
+      <c r="AO365">
+        <v>1.44</v>
+      </c>
+      <c r="AP365">
+        <v>1</v>
+      </c>
+      <c r="AQ365">
+        <v>1.53</v>
+      </c>
+      <c r="AR365">
+        <v>1.5</v>
+      </c>
+      <c r="AS365">
         <v>1.56</v>
       </c>
-      <c r="AO365">
-        <v>1.56</v>
-      </c>
-      <c r="AP365">
-        <v>1.63</v>
-      </c>
-      <c r="AQ365">
-        <v>1.47</v>
-      </c>
-      <c r="AR365">
-        <v>1.41</v>
-      </c>
-      <c r="AS365">
-        <v>1.42</v>
-      </c>
       <c r="AT365">
-        <v>2.83</v>
+        <v>3.06</v>
       </c>
       <c r="AU365">
+        <v>5</v>
+      </c>
+      <c r="AV365">
+        <v>12</v>
+      </c>
+      <c r="AW365">
+        <v>5</v>
+      </c>
+      <c r="AX365">
         <v>6</v>
       </c>
-      <c r="AV365">
+      <c r="AY365">
+        <v>13</v>
+      </c>
+      <c r="AZ365">
+        <v>22</v>
+      </c>
+      <c r="BA365">
         <v>3</v>
       </c>
-      <c r="AW365">
-        <v>8</v>
-      </c>
-      <c r="AX365">
-        <v>4</v>
-      </c>
-      <c r="AY365">
-        <v>22</v>
-      </c>
-      <c r="AZ365">
+      <c r="BB365">
+        <v>7</v>
+      </c>
+      <c r="BC365">
         <v>10</v>
       </c>
-      <c r="BA365">
-        <v>7</v>
-      </c>
-      <c r="BB365">
-        <v>5</v>
-      </c>
-      <c r="BC365">
-        <v>12</v>
-      </c>
       <c r="BD365">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="BE365">
         <v>8.5</v>
       </c>
       <c r="BF365">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="BG365">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="BH365">
-        <v>3.9</v>
+        <v>4.65</v>
       </c>
       <c r="BI365">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="BJ365">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="BK365">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="BL365">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BM365">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="BN365">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="BO365">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BP365">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -76962,7 +76962,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>7327258</v>
+        <v>7327259</v>
       </c>
       <c r="C366" t="s">
         <v>68</v>
@@ -76977,190 +76977,190 @@
         <v>37</v>
       </c>
       <c r="G366" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H366" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366">
         <v>1</v>
       </c>
       <c r="L366">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N366">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O366" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="P366" t="s">
         <v>459</v>
       </c>
       <c r="Q366">
+        <v>3.1</v>
+      </c>
+      <c r="R366">
+        <v>2.1</v>
+      </c>
+      <c r="S366">
+        <v>3.4</v>
+      </c>
+      <c r="T366">
+        <v>1.4</v>
+      </c>
+      <c r="U366">
+        <v>2.75</v>
+      </c>
+      <c r="V366">
         <v>3</v>
       </c>
-      <c r="R366">
-        <v>2.38</v>
-      </c>
-      <c r="S366">
-        <v>3.1</v>
-      </c>
-      <c r="T366">
+      <c r="W366">
+        <v>1.36</v>
+      </c>
+      <c r="X366">
+        <v>8</v>
+      </c>
+      <c r="Y366">
+        <v>1.08</v>
+      </c>
+      <c r="Z366">
+        <v>2.5</v>
+      </c>
+      <c r="AA366">
+        <v>3.2</v>
+      </c>
+      <c r="AB366">
+        <v>2.8</v>
+      </c>
+      <c r="AC366">
+        <v>1.06</v>
+      </c>
+      <c r="AD366">
+        <v>8.5</v>
+      </c>
+      <c r="AE366">
         <v>1.3</v>
       </c>
-      <c r="U366">
-        <v>3.4</v>
-      </c>
-      <c r="V366">
-        <v>2.38</v>
-      </c>
-      <c r="W366">
-        <v>1.53</v>
-      </c>
-      <c r="X366">
-        <v>6</v>
-      </c>
-      <c r="Y366">
-        <v>1.13</v>
-      </c>
-      <c r="Z366">
-        <v>2.4</v>
-      </c>
-      <c r="AA366">
-        <v>3.5</v>
-      </c>
-      <c r="AB366">
-        <v>2.7</v>
-      </c>
-      <c r="AC366">
-        <v>1.04</v>
-      </c>
-      <c r="AD366">
-        <v>10</v>
-      </c>
-      <c r="AE366">
-        <v>1.18</v>
-      </c>
       <c r="AF366">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG366">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="AH366">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="AI366">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AJ366">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AK366">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AL366">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM366">
         <v>1.53</v>
       </c>
       <c r="AN366">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AO366">
         <v>1.44</v>
       </c>
       <c r="AP366">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ366">
         <v>1.53</v>
       </c>
       <c r="AR366">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS366">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AT366">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="AU366">
+        <v>4</v>
+      </c>
+      <c r="AV366">
         <v>5</v>
       </c>
-      <c r="AV366">
-        <v>12</v>
-      </c>
       <c r="AW366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX366">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY366">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ366">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BA366">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB366">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC366">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD366">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="BE366">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF366">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BG366">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BH366">
-        <v>4.65</v>
+        <v>3.35</v>
       </c>
       <c r="BI366">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="BJ366">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BK366">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="BL366">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="BM366">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="BN366">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="BO366">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="BP366">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="367" spans="1:68">
@@ -77168,7 +77168,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>7327259</v>
+        <v>7327260</v>
       </c>
       <c r="C367" t="s">
         <v>68</v>
@@ -77183,190 +77183,190 @@
         <v>37</v>
       </c>
       <c r="G367" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H367" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M367">
         <v>1</v>
       </c>
       <c r="N367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O367" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="P367" t="s">
-        <v>460</v>
+        <v>209</v>
       </c>
       <c r="Q367">
         <v>3.1</v>
       </c>
       <c r="R367">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S367">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T367">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V367">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W367">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X367">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y367">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z367">
         <v>2.5</v>
       </c>
       <c r="AA367">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB367">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AC367">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD367">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE367">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF367">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AG367">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AH367">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AI367">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ367">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK367">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AL367">
         <v>1.25</v>
       </c>
       <c r="AM367">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AN367">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AO367">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP367">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="AQ367">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AR367">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AS367">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT367">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="AU367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV367">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW367">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX367">
         <v>4</v>
       </c>
       <c r="AY367">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ367">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA367">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB367">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC367">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD367">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="BE367">
         <v>8</v>
       </c>
       <c r="BF367">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BG367">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH367">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="BI367">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BJ367">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BK367">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BL367">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BM367">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="BN367">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="BO367">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="BP367">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="368" spans="1:68">
@@ -77374,7 +77374,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>7327260</v>
+        <v>7327261</v>
       </c>
       <c r="C368" t="s">
         <v>68</v>
@@ -77389,160 +77389,160 @@
         <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H368" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N368">
         <v>3</v>
       </c>
       <c r="O368" t="s">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="P368" t="s">
-        <v>209</v>
+        <v>460</v>
       </c>
       <c r="Q368">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R368">
         <v>2.2</v>
       </c>
       <c r="S368">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="T368">
+        <v>1.4</v>
+      </c>
+      <c r="U368">
+        <v>2.75</v>
+      </c>
+      <c r="V368">
+        <v>3</v>
+      </c>
+      <c r="W368">
         <v>1.36</v>
       </c>
-      <c r="U368">
-        <v>3</v>
-      </c>
-      <c r="V368">
-        <v>2.63</v>
-      </c>
-      <c r="W368">
-        <v>1.44</v>
-      </c>
       <c r="X368">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y368">
+        <v>1.08</v>
+      </c>
+      <c r="Z368">
+        <v>1.65</v>
+      </c>
+      <c r="AA368">
+        <v>3.75</v>
+      </c>
+      <c r="AB368">
+        <v>5</v>
+      </c>
+      <c r="AC368">
+        <v>1.06</v>
+      </c>
+      <c r="AD368">
+        <v>8.5</v>
+      </c>
+      <c r="AE368">
+        <v>1.3</v>
+      </c>
+      <c r="AF368">
+        <v>3.3</v>
+      </c>
+      <c r="AG368">
+        <v>1.98</v>
+      </c>
+      <c r="AH368">
+        <v>1.78</v>
+      </c>
+      <c r="AI368">
+        <v>1.95</v>
+      </c>
+      <c r="AJ368">
+        <v>1.8</v>
+      </c>
+      <c r="AK368">
+        <v>1.12</v>
+      </c>
+      <c r="AL368">
+        <v>1.2</v>
+      </c>
+      <c r="AM368">
+        <v>2.15</v>
+      </c>
+      <c r="AN368">
+        <v>1.5</v>
+      </c>
+      <c r="AO368">
+        <v>0.61</v>
+      </c>
+      <c r="AP368">
+        <v>1.42</v>
+      </c>
+      <c r="AQ368">
+        <v>0.74</v>
+      </c>
+      <c r="AR368">
         <v>1.1</v>
       </c>
-      <c r="Z368">
-        <v>2.5</v>
-      </c>
-      <c r="AA368">
-        <v>3.4</v>
-      </c>
-      <c r="AB368">
-        <v>2.65</v>
-      </c>
-      <c r="AC368">
-        <v>1.05</v>
-      </c>
-      <c r="AD368">
-        <v>9</v>
-      </c>
-      <c r="AE368">
-        <v>1.25</v>
-      </c>
-      <c r="AF368">
-        <v>3.75</v>
-      </c>
-      <c r="AG368">
-        <v>1.78</v>
-      </c>
-      <c r="AH368">
-        <v>1.98</v>
-      </c>
-      <c r="AI368">
-        <v>1.62</v>
-      </c>
-      <c r="AJ368">
-        <v>2.2</v>
-      </c>
-      <c r="AK368">
-        <v>1.47</v>
-      </c>
-      <c r="AL368">
-        <v>1.25</v>
-      </c>
-      <c r="AM368">
-        <v>1.5</v>
-      </c>
-      <c r="AN368">
-        <v>1.06</v>
-      </c>
-      <c r="AO368">
-        <v>1.5</v>
-      </c>
-      <c r="AP368">
-        <v>1.16</v>
-      </c>
-      <c r="AQ368">
-        <v>1.42</v>
-      </c>
-      <c r="AR368">
-        <v>1.28</v>
-      </c>
       <c r="AS368">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT368">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AU368">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV368">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW368">
         <v>9</v>
       </c>
       <c r="AX368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY368">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ368">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA368">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB368">
+        <v>2</v>
+      </c>
+      <c r="BC368">
         <v>8</v>
       </c>
-      <c r="BC368">
-        <v>12</v>
-      </c>
       <c r="BD368">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="BE368">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF368">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="BG368">
         <v>1.26</v>
@@ -77580,7 +77580,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>7327261</v>
+        <v>7327262</v>
       </c>
       <c r="C369" t="s">
         <v>68</v>
@@ -77595,10 +77595,10 @@
         <v>37</v>
       </c>
       <c r="G369" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H369" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -77613,10 +77613,10 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O369" t="s">
         <v>91</v>
@@ -77625,13 +77625,13 @@
         <v>461</v>
       </c>
       <c r="Q369">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="R369">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S369">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="T369">
         <v>1.4</v>
@@ -77652,13 +77652,13 @@
         <v>1.08</v>
       </c>
       <c r="Z369">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="AA369">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AB369">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="AC369">
         <v>1.06</v>
@@ -77673,82 +77673,82 @@
         <v>3.3</v>
       </c>
       <c r="AG369">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AH369">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AI369">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AJ369">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK369">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="AL369">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM369">
-        <v>2.15</v>
+        <v>1.38</v>
       </c>
       <c r="AN369">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO369">
-        <v>0.61</v>
+        <v>1.28</v>
       </c>
       <c r="AP369">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ369">
-        <v>0.74</v>
+        <v>1.37</v>
       </c>
       <c r="AR369">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="AS369">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AT369">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AU369">
+        <v>6</v>
+      </c>
+      <c r="AV369">
         <v>5</v>
-      </c>
-      <c r="AV369">
-        <v>6</v>
       </c>
       <c r="AW369">
         <v>9</v>
       </c>
       <c r="AX369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY369">
         <v>20</v>
       </c>
       <c r="AZ369">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC369">
         <v>8</v>
       </c>
       <c r="BD369">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="BE369">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF369">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="BG369">
         <v>1.26</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -78351,22 +78351,22 @@
         <v>2.96</v>
       </c>
       <c r="AU372">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV372">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW372">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX372">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY372">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ372">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA372">
         <v>6</v>
@@ -78969,22 +78969,22 @@
         <v>2.92</v>
       </c>
       <c r="AU375">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV375">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW375">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX375">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AY375">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ375">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA375">
         <v>9</v>
@@ -79175,22 +79175,22 @@
         <v>3.04</v>
       </c>
       <c r="AU376">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV376">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW376">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX376">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY376">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="AZ376">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BA376">
         <v>7</v>
@@ -79587,22 +79587,22 @@
         <v>2.57</v>
       </c>
       <c r="AU378">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV378">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW378">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX378">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY378">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ378">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA378">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -78351,22 +78351,22 @@
         <v>2.96</v>
       </c>
       <c r="AU372">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV372">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW372">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX372">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY372">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ372">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA372">
         <v>6</v>
@@ -78969,22 +78969,22 @@
         <v>2.92</v>
       </c>
       <c r="AU375">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV375">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW375">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX375">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY375">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ375">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA375">
         <v>9</v>
@@ -79175,22 +79175,22 @@
         <v>3.04</v>
       </c>
       <c r="AU376">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV376">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW376">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX376">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY376">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ376">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA376">
         <v>7</v>
@@ -79587,22 +79587,22 @@
         <v>2.57</v>
       </c>
       <c r="AU378">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV378">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW378">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX378">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY378">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ378">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA378">
         <v>3</v>
